--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_23_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2714523.110151602</v>
+        <v>2733698.447182831</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4667125.794576537</v>
+        <v>4667125.794576538</v>
       </c>
     </row>
     <row r="9">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>314.5676998860955</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>297.1067499936225</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>54.8530613214751</v>
       </c>
       <c r="E11" t="n">
-        <v>313.7642282948767</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>338.7099039643264</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>343.8000632351545</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>237.1383968461759</v>
       </c>
       <c r="I11" t="n">
-        <v>13.67807848670779</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>64.82269340596534</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>140.3240367566345</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>259.5861166927498</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>281.0748269400279</v>
       </c>
       <c r="X11" t="n">
-        <v>57.07922133102199</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>318.0717968786685</v>
@@ -1451,10 +1451,10 @@
         <v>98.36704187248229</v>
       </c>
       <c r="C12" t="n">
-        <v>145.8565454900773</v>
+        <v>104.5423572109307</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>79.2789237872537</v>
       </c>
       <c r="E12" t="n">
         <v>89.47893867801589</v>
@@ -1463,7 +1463,7 @@
         <v>76.90307061599883</v>
       </c>
       <c r="G12" t="n">
-        <v>67.39217311332838</v>
+        <v>108.7063613924746</v>
       </c>
       <c r="H12" t="n">
         <v>26.82800682736208</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>70.35768009827004</v>
+        <v>70.35768009827005</v>
       </c>
       <c r="T12" t="n">
         <v>124.8029689857483</v>
@@ -1508,7 +1508,7 @@
         <v>157.6577927856623</v>
       </c>
       <c r="V12" t="n">
-        <v>164.6344453720402</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>183.5288413835345</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111.6658384045522</v>
+        <v>111.6658384045531</v>
       </c>
       <c r="C13" t="n">
         <v>99.08067932124278</v>
@@ -1545,7 +1545,7 @@
         <v>98.32818396464306</v>
       </c>
       <c r="H13" t="n">
-        <v>80.75441948579029</v>
+        <v>80.75441948578933</v>
       </c>
       <c r="I13" t="n">
         <v>42.27587712121345</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>314.5676998860955</v>
       </c>
       <c r="C14" t="n">
         <v>297.1067499936225</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>286.5168998432979</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>338.7099039643264</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>343.8000632351545</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>237.1383968461759</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>13.67807848670782</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>140.3240367566345</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.9125885302438</v>
       </c>
       <c r="V14" t="n">
-        <v>26.87388896915595</v>
+        <v>1.284142610724968</v>
       </c>
       <c r="W14" t="n">
         <v>281.0748269400279</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>301.564958901084</v>
       </c>
       <c r="Y14" t="n">
         <v>318.0717968786685</v>
@@ -1694,16 +1694,16 @@
         <v>79.2789237872537</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>89.47893867801589</v>
       </c>
       <c r="F15" t="n">
-        <v>118.2172588951449</v>
+        <v>76.90307061599883</v>
       </c>
       <c r="G15" t="n">
         <v>67.39217311332838</v>
       </c>
       <c r="H15" t="n">
-        <v>26.82800682736208</v>
+        <v>68.14219510650786</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>70.35768009827005</v>
+        <v>138.5238218756551</v>
       </c>
       <c r="T15" t="n">
         <v>124.8029689857483</v>
@@ -1782,7 +1782,7 @@
         <v>98.32818396464306</v>
       </c>
       <c r="H16" t="n">
-        <v>80.75441948578933</v>
+        <v>80.75441948579029</v>
       </c>
       <c r="I16" t="n">
         <v>42.27587712121345</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.8322606282762</v>
+        <v>41.83226062827562</v>
       </c>
       <c r="S16" t="n">
         <v>129.7678655077913</v>
@@ -1855,16 +1855,16 @@
         <v>313.7642282948767</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>338.7099039643264</v>
       </c>
       <c r="G17" t="n">
-        <v>152.0950624308716</v>
+        <v>343.8000632351545</v>
       </c>
       <c r="H17" t="n">
-        <v>237.1383968461759</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>13.67807848670782</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.82269340596534</v>
+        <v>64.82269340596535</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>140.3240367566345</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>162.7173196487509</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0748269400279</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>301.564958901084</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>318.0717968786685</v>
@@ -1931,16 +1931,16 @@
         <v>79.2789237872537</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>130.7931269571611</v>
       </c>
       <c r="F18" t="n">
-        <v>118.2172588951445</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>67.39217311332838</v>
       </c>
       <c r="H18" t="n">
-        <v>26.82800682736208</v>
+        <v>26.82800682736209</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>70.35768009827005</v>
+        <v>70.35768009827007</v>
       </c>
       <c r="T18" t="n">
         <v>124.8029689857483</v>
@@ -2019,10 +2019,10 @@
         <v>98.32818396464306</v>
       </c>
       <c r="H19" t="n">
-        <v>80.75441948578931</v>
+        <v>80.75441948578934</v>
       </c>
       <c r="I19" t="n">
-        <v>42.27587712121345</v>
+        <v>42.27587712121347</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.83226062827597</v>
+        <v>41.83226062827565</v>
       </c>
       <c r="S19" t="n">
         <v>129.7678655077913</v>
@@ -2058,7 +2058,7 @@
         <v>153.3846549261473</v>
       </c>
       <c r="U19" t="n">
-        <v>218.0712519273004</v>
+        <v>218.0712519273002</v>
       </c>
       <c r="V19" t="n">
         <v>183.9715015464429</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5676998860955</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>139.9335461130547</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>286.5168998432979</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>313.7642282948767</v>
       </c>
       <c r="F20" t="n">
         <v>338.7099039643264</v>
@@ -2098,7 +2098,7 @@
         <v>343.8000632351545</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>237.1383968461759</v>
       </c>
       <c r="I20" t="n">
         <v>13.67807848670785</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.63874739261332</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>140.3240367566345</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0748269400279</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0717968786685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,10 +2168,10 @@
         <v>79.2789237872537</v>
       </c>
       <c r="E21" t="n">
-        <v>130.7931269571611</v>
+        <v>89.47893867801589</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>76.90307061599883</v>
       </c>
       <c r="G21" t="n">
         <v>67.39217311332838</v>
@@ -2225,10 +2225,10 @@
         <v>183.5288413835345</v>
       </c>
       <c r="X21" t="n">
-        <v>137.6068434260924</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>137.5165539999193</v>
+        <v>178.8307422790645</v>
       </c>
     </row>
     <row r="22">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7642282948767</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>338.7099039643264</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>13.67807848670785</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>64.82269340596535</v>
       </c>
       <c r="T23" t="n">
-        <v>140.3240367566345</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>149.039241162043</v>
+        <v>182.9125885302438</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>259.5861166927498</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>281.0748269400279</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0717968786685</v>
+        <v>211.3038494159093</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>98.36704187248229</v>
       </c>
       <c r="C24" t="n">
-        <v>104.5423572109307</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>79.2789237872537</v>
@@ -2456,13 +2456,13 @@
         <v>157.6577927856623</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>164.6344453720402</v>
       </c>
       <c r="W24" t="n">
-        <v>224.8430296626799</v>
+        <v>183.5288413835345</v>
       </c>
       <c r="X24" t="n">
-        <v>137.6068434260924</v>
+        <v>178.9210317052377</v>
       </c>
       <c r="Y24" t="n">
         <v>137.5165539999193</v>
@@ -2557,25 +2557,25 @@
         <v>348.5994056696353</v>
       </c>
       <c r="C26" t="n">
-        <v>331.1384557771623</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>347.7959340784165</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>372.7416097478662</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>377.8317690186943</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>47.70978427024764</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>216.9442943137836</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>293.6178224762897</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>19.92319729726416</v>
+        <v>67.64817541148409</v>
       </c>
       <c r="X26" t="n">
         <v>335.5966646846238</v>
       </c>
       <c r="Y26" t="n">
-        <v>352.1035026622084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>101.4238788968682</v>
       </c>
       <c r="H27" t="n">
-        <v>60.85971261090189</v>
+        <v>60.85971261090188</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>104.3893858818099</v>
+        <v>104.3893858818098</v>
       </c>
       <c r="T27" t="n">
         <v>158.8346747692881</v>
@@ -2696,7 +2696,7 @@
         <v>198.66615115558</v>
       </c>
       <c r="W27" t="n">
-        <v>217.5605471670744</v>
+        <v>217.5605471670743</v>
       </c>
       <c r="X27" t="n">
         <v>171.6385492096322</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.1123851047826</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>114.4810370243671</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>122.3441208612684</v>
+        <v>117.823996279641</v>
       </c>
       <c r="H28" t="n">
         <v>114.7861252693291</v>
       </c>
       <c r="I28" t="n">
-        <v>76.30758290475327</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>75.86396641181545</v>
+        <v>75.86396641181543</v>
       </c>
       <c r="S28" t="n">
-        <v>163.7995712913311</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>187.4163607096871</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>252.1029577108403</v>
       </c>
       <c r="V28" t="n">
-        <v>218.0032073299828</v>
+        <v>218.0032073299827</v>
       </c>
       <c r="W28" t="n">
-        <v>252.3885623427458</v>
+        <v>252.3885623427457</v>
       </c>
       <c r="X28" t="n">
         <v>191.5752193951919</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.4502173582495</v>
       </c>
     </row>
     <row r="29">
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>347.7959340784165</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>372.7416097478662</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>377.8317690186943</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>77.15220171797472</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>174.3557425401743</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>335.5966646846238</v>
       </c>
       <c r="Y29" t="n">
-        <v>218.6705677786979</v>
+        <v>352.1035026622083</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>101.4238788968682</v>
       </c>
       <c r="H30" t="n">
-        <v>60.85971261090189</v>
+        <v>60.85971261090188</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>104.3893858818099</v>
+        <v>104.3893858818098</v>
       </c>
       <c r="T30" t="n">
         <v>158.8346747692881</v>
@@ -2933,7 +2933,7 @@
         <v>198.66615115558</v>
       </c>
       <c r="W30" t="n">
-        <v>217.5605471670744</v>
+        <v>217.5605471670743</v>
       </c>
       <c r="X30" t="n">
         <v>171.6385492096322</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.6975441880921</v>
+        <v>124.9893637991693</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>114.4810370243671</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.2995266527239</v>
       </c>
       <c r="F31" t="n">
-        <v>47.89007893711099</v>
+        <v>111.286612029086</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>132.3598897481829</v>
       </c>
       <c r="H31" t="n">
         <v>114.7861252693291</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>76.30758290475326</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>75.86396641181543</v>
       </c>
       <c r="S31" t="n">
         <v>163.7995712913311</v>
       </c>
       <c r="T31" t="n">
-        <v>187.4163607096871</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>252.1029577108403</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>252.3885623427458</v>
+        <v>252.3885623427457</v>
       </c>
       <c r="X31" t="n">
         <v>191.5752193951919</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>314.5676998860955</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>297.1067499936225</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>112.9924041517987</v>
+        <v>286.5168998432979</v>
       </c>
       <c r="E32" t="n">
         <v>313.7642282948767</v>
       </c>
       <c r="F32" t="n">
-        <v>338.7099039643264</v>
+        <v>219.0573333846315</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>343.8000632351545</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>237.1383968461759</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>13.67807848670785</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>140.3240367566345</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>182.9125885302438</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>259.5861166927498</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>301.564958901084</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>318.0717968786685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.36704187248228</v>
+        <v>98.36704187248229</v>
       </c>
       <c r="C33" t="n">
         <v>104.5423572109307</v>
       </c>
       <c r="D33" t="n">
-        <v>79.27892378725369</v>
+        <v>120.593112066399</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>89.47893867801589</v>
       </c>
       <c r="F33" t="n">
-        <v>118.2172588951446</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>67.39217311332837</v>
+        <v>67.39217311332838</v>
       </c>
       <c r="H33" t="n">
-        <v>26.82800682736207</v>
+        <v>26.82800682736209</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>70.35768009827004</v>
+        <v>70.35768009827007</v>
       </c>
       <c r="T33" t="n">
         <v>124.8029689857483</v>
@@ -3189,25 +3189,25 @@
         <v>111.6658384045522</v>
       </c>
       <c r="C34" t="n">
-        <v>99.08067932124277</v>
+        <v>99.08067932124278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.44933124082729</v>
+        <v>80.44933124082731</v>
       </c>
       <c r="E34" t="n">
-        <v>78.26782086918411</v>
+        <v>78.26782086918412</v>
       </c>
       <c r="F34" t="n">
-        <v>77.25490624554618</v>
+        <v>77.2549062455462</v>
       </c>
       <c r="G34" t="n">
-        <v>98.32818396464305</v>
+        <v>98.32818396464306</v>
       </c>
       <c r="H34" t="n">
-        <v>80.75441948578931</v>
+        <v>80.75441948578936</v>
       </c>
       <c r="I34" t="n">
-        <v>42.27587712121345</v>
+        <v>42.27587712121347</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83226062827563</v>
+        <v>41.83226062827565</v>
       </c>
       <c r="S34" t="n">
         <v>129.7678655077913</v>
@@ -3243,7 +3243,7 @@
         <v>153.3846549261473</v>
       </c>
       <c r="U34" t="n">
-        <v>218.0712519273005</v>
+        <v>218.0712519273004</v>
       </c>
       <c r="V34" t="n">
         <v>183.9715015464429</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.5676998860955</v>
+        <v>96.03274151406406</v>
       </c>
       <c r="C35" t="n">
-        <v>297.1067499936225</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>338.7099039643264</v>
       </c>
       <c r="G35" t="n">
-        <v>343.8000632351545</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>64.82269340596535</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>140.3240367566345</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>182.9125885302438</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>259.5861166927498</v>
       </c>
       <c r="W35" t="n">
         <v>281.0748269400279</v>
@@ -3334,7 +3334,7 @@
         <v>301.564958901084</v>
       </c>
       <c r="Y35" t="n">
-        <v>106.2754606634537</v>
+        <v>318.0717968786685</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.36704187248228</v>
+        <v>98.36704187248229</v>
       </c>
       <c r="C36" t="n">
         <v>104.5423572109307</v>
       </c>
       <c r="D36" t="n">
-        <v>79.27892378725369</v>
+        <v>79.2789237872537</v>
       </c>
       <c r="E36" t="n">
-        <v>89.47893867801588</v>
+        <v>89.47893867801589</v>
       </c>
       <c r="F36" t="n">
-        <v>118.2172588951446</v>
+        <v>76.90307061599883</v>
       </c>
       <c r="G36" t="n">
-        <v>67.39217311332837</v>
+        <v>67.39217311332838</v>
       </c>
       <c r="H36" t="n">
-        <v>26.82800682736207</v>
+        <v>26.82800682736209</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>70.35768009827004</v>
+        <v>70.35768009827007</v>
       </c>
       <c r="T36" t="n">
         <v>124.8029689857483</v>
@@ -3404,16 +3404,16 @@
         <v>157.6577927856623</v>
       </c>
       <c r="V36" t="n">
-        <v>164.6344453720402</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>183.5288413835345</v>
+        <v>224.8430296626799</v>
       </c>
       <c r="X36" t="n">
         <v>137.6068434260924</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>137.5165539999193</v>
       </c>
     </row>
     <row r="37">
@@ -3426,25 +3426,25 @@
         <v>111.6658384045522</v>
       </c>
       <c r="C37" t="n">
-        <v>99.08067932124277</v>
+        <v>99.08067932124278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.44933124082729</v>
+        <v>80.44933124082731</v>
       </c>
       <c r="E37" t="n">
-        <v>78.26782086918411</v>
+        <v>78.26782086918412</v>
       </c>
       <c r="F37" t="n">
-        <v>77.25490624554618</v>
+        <v>77.2549062455462</v>
       </c>
       <c r="G37" t="n">
-        <v>98.32818396464305</v>
+        <v>98.32818396464306</v>
       </c>
       <c r="H37" t="n">
         <v>80.75441948578933</v>
       </c>
       <c r="I37" t="n">
-        <v>42.27587712121353</v>
+        <v>42.27587712121347</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83226062827563</v>
+        <v>41.83226062827565</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7678655077908</v>
+        <v>129.7678655077913</v>
       </c>
       <c r="T37" t="n">
         <v>153.3846549261473</v>
       </c>
       <c r="U37" t="n">
-        <v>218.0712519273009</v>
+        <v>218.0712519273005</v>
       </c>
       <c r="V37" t="n">
         <v>183.9715015464429</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>314.5676998860955</v>
       </c>
       <c r="C38" t="n">
-        <v>297.1067499936225</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>286.5168998432979</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>313.7642282948767</v>
       </c>
       <c r="F38" t="n">
-        <v>335.5388153271008</v>
+        <v>338.7099039643264</v>
       </c>
       <c r="G38" t="n">
         <v>343.8000632351545</v>
       </c>
       <c r="H38" t="n">
-        <v>237.1383968461759</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>64.82269340596535</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>140.3240367566345</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9125885302438</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>162.7173196487509</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>318.0717968786685</v>
       </c>
     </row>
     <row r="39">
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.36704187248228</v>
+        <v>98.36704187248229</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>104.5423572109307</v>
       </c>
       <c r="D39" t="n">
-        <v>120.5931120663995</v>
+        <v>79.2789237872537</v>
       </c>
       <c r="E39" t="n">
-        <v>89.47893867801588</v>
+        <v>130.7931269571611</v>
       </c>
       <c r="F39" t="n">
-        <v>76.90307061599881</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>67.39217311332837</v>
+        <v>67.39217311332838</v>
       </c>
       <c r="H39" t="n">
-        <v>26.82800682736207</v>
+        <v>26.82800682736209</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>70.35768009827004</v>
+        <v>70.35768009827007</v>
       </c>
       <c r="T39" t="n">
         <v>124.8029689857483</v>
@@ -3663,25 +3663,25 @@
         <v>111.6658384045522</v>
       </c>
       <c r="C40" t="n">
-        <v>99.08067932124277</v>
+        <v>99.08067932124278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.44933124082729</v>
+        <v>80.44933124082731</v>
       </c>
       <c r="E40" t="n">
-        <v>78.26782086918411</v>
+        <v>78.26782086918412</v>
       </c>
       <c r="F40" t="n">
-        <v>77.25490624554618</v>
+        <v>77.2549062455462</v>
       </c>
       <c r="G40" t="n">
-        <v>98.32818396464305</v>
+        <v>98.32818396464306</v>
       </c>
       <c r="H40" t="n">
-        <v>80.75441948578931</v>
+        <v>80.75441948578933</v>
       </c>
       <c r="I40" t="n">
-        <v>42.27587712121345</v>
+        <v>42.27587712121347</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83226062827563</v>
+        <v>41.83226062827565</v>
       </c>
       <c r="S40" t="n">
         <v>129.7678655077913</v>
@@ -3748,16 +3748,16 @@
         <v>320.6513358371432</v>
       </c>
       <c r="E41" t="n">
-        <v>277.0532869356951</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>372.8443399581716</v>
       </c>
       <c r="G41" t="n">
         <v>377.9344992289998</v>
       </c>
       <c r="H41" t="n">
-        <v>271.2728328400212</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>98.95712939981057</v>
+        <v>98.9571293998106</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>217.0470245240891</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>293.7205526865951</v>
       </c>
       <c r="W41" t="n">
         <v>315.2092629338732</v>
       </c>
       <c r="X41" t="n">
-        <v>335.6993948949292</v>
+        <v>0.4135975017899318</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3824,10 +3824,10 @@
         <v>138.6767932047759</v>
       </c>
       <c r="D42" t="n">
-        <v>113.4133597810989</v>
+        <v>113.413359781099</v>
       </c>
       <c r="E42" t="n">
-        <v>123.6133746718611</v>
+        <v>123.6133746718612</v>
       </c>
       <c r="F42" t="n">
         <v>111.0375066098441</v>
@@ -3836,7 +3836,7 @@
         <v>101.5266091071736</v>
       </c>
       <c r="H42" t="n">
-        <v>60.96244282120732</v>
+        <v>60.96244282120733</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>191.7922287795076</v>
       </c>
       <c r="V42" t="n">
-        <v>198.7688813658854</v>
+        <v>198.7688813658855</v>
       </c>
       <c r="W42" t="n">
         <v>217.6632773773798</v>
@@ -3887,7 +3887,7 @@
         <v>171.7412794199377</v>
       </c>
       <c r="Y42" t="n">
-        <v>171.6509899937645</v>
+        <v>171.6509899937646</v>
       </c>
     </row>
     <row r="43">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.66733795222292</v>
+        <v>145.8002743983975</v>
       </c>
       <c r="C43" t="n">
         <v>133.215115315088</v>
       </c>
       <c r="D43" t="n">
-        <v>114.5837672346725</v>
+        <v>114.5837672346726</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>112.4022568630294</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>111.3893422393915</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>132.4626199584883</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>114.8888554796346</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>75.96669662212088</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>163.9023015016366</v>
       </c>
       <c r="T43" t="n">
-        <v>187.5190909199925</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>252.2056879211458</v>
@@ -3963,10 +3963,10 @@
         <v>252.4912925530512</v>
       </c>
       <c r="X43" t="n">
-        <v>191.6779496054973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.552947568555</v>
+        <v>120.4406737294468</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>209.4796720081816</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>136.3647790801789</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>347.898664288722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>372.8443399581716</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>377.9344992289998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.2728328400212</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>98.95712939981057</v>
+        <v>98.9571293998106</v>
       </c>
       <c r="T44" t="n">
         <v>174.4584727504798</v>
       </c>
       <c r="U44" t="n">
-        <v>217.047024524089</v>
+        <v>217.0470245240891</v>
       </c>
       <c r="V44" t="n">
-        <v>293.7205526865951</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>315.2092629338732</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>335.6993948949292</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>352.2062328725137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,10 +4061,10 @@
         <v>138.6767932047759</v>
       </c>
       <c r="D45" t="n">
-        <v>113.4133597810989</v>
+        <v>113.413359781099</v>
       </c>
       <c r="E45" t="n">
-        <v>123.6133746718611</v>
+        <v>123.6133746718612</v>
       </c>
       <c r="F45" t="n">
         <v>111.0375066098441</v>
@@ -4073,7 +4073,7 @@
         <v>101.5266091071736</v>
       </c>
       <c r="H45" t="n">
-        <v>60.96244282120732</v>
+        <v>60.96244282120733</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>158.9374049795935</v>
       </c>
       <c r="U45" t="n">
-        <v>191.7922287795077</v>
+        <v>191.7922287795079</v>
       </c>
       <c r="V45" t="n">
-        <v>198.7688813658854</v>
+        <v>198.7688813658855</v>
       </c>
       <c r="W45" t="n">
         <v>217.6632773773798</v>
@@ -4124,7 +4124,7 @@
         <v>171.7412794199377</v>
       </c>
       <c r="Y45" t="n">
-        <v>171.6509899937645</v>
+        <v>171.6509899937646</v>
       </c>
     </row>
     <row r="46">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>67.67508140541628</v>
       </c>
       <c r="C46" t="n">
-        <v>50.32695831901959</v>
+        <v>133.215115315088</v>
       </c>
       <c r="D46" t="n">
-        <v>114.5837672346725</v>
+        <v>114.5837672346726</v>
       </c>
       <c r="E46" t="n">
         <v>112.4022568630294</v>
       </c>
       <c r="F46" t="n">
-        <v>111.3893422393914</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>132.4626199584883</v>
       </c>
       <c r="H46" t="n">
         <v>114.8888554796346</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>76.41031311505873</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>75.96669662212088</v>
+        <v>75.96669662212091</v>
       </c>
       <c r="S46" t="n">
         <v>163.9023015016366</v>
       </c>
       <c r="T46" t="n">
-        <v>187.5190909199925</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>252.2056879211458</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>218.1059375402882</v>
@@ -4200,7 +4200,7 @@
         <v>252.4912925530512</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>191.6779496054974</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1361.423828423628</v>
+        <v>983.4836743041733</v>
       </c>
       <c r="C11" t="n">
-        <v>1061.316000147241</v>
+        <v>683.3758460277869</v>
       </c>
       <c r="D11" t="n">
-        <v>1061.316000147241</v>
+        <v>627.9687133798323</v>
       </c>
       <c r="E11" t="n">
-        <v>744.3824362130224</v>
+        <v>627.9687133798323</v>
       </c>
       <c r="F11" t="n">
-        <v>402.2512200874402</v>
+        <v>627.9687133798323</v>
       </c>
       <c r="G11" t="n">
-        <v>54.97842894081953</v>
+        <v>280.6959222332116</v>
       </c>
       <c r="H11" t="n">
-        <v>54.97842894081953</v>
+        <v>41.16218804515511</v>
       </c>
       <c r="I11" t="n">
-        <v>41.1621880451551</v>
+        <v>41.16218804515511</v>
       </c>
       <c r="J11" t="n">
-        <v>142.2789278009786</v>
+        <v>142.2789278009795</v>
       </c>
       <c r="K11" t="n">
-        <v>344.5652271302101</v>
+        <v>344.565227130211</v>
       </c>
       <c r="L11" t="n">
-        <v>632.4210306842288</v>
+        <v>632.4210306842299</v>
       </c>
       <c r="M11" t="n">
-        <v>984.3855134576371</v>
+        <v>984.3855134576381</v>
       </c>
       <c r="N11" t="n">
-        <v>1346.65895790869</v>
+        <v>1346.658957908691</v>
       </c>
       <c r="O11" t="n">
-        <v>1675.408237390941</v>
+        <v>1675.408237390942</v>
       </c>
       <c r="P11" t="n">
         <v>1921.487140686697</v>
@@ -5068,25 +5068,25 @@
         <v>2058.109402257755</v>
       </c>
       <c r="S11" t="n">
-        <v>2058.109402257755</v>
+        <v>1992.631934170922</v>
       </c>
       <c r="T11" t="n">
-        <v>2058.109402257755</v>
+        <v>1850.890482901594</v>
       </c>
       <c r="U11" t="n">
-        <v>2058.109402257755</v>
+        <v>1850.890482901594</v>
       </c>
       <c r="V11" t="n">
-        <v>2058.109402257755</v>
+        <v>1588.682284222049</v>
       </c>
       <c r="W11" t="n">
-        <v>2058.109402257755</v>
+        <v>1304.76831761596</v>
       </c>
       <c r="X11" t="n">
-        <v>2000.45362313551</v>
+        <v>1304.76831761596</v>
       </c>
       <c r="Y11" t="n">
-        <v>1679.168979823724</v>
+        <v>983.4836743041733</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.6609762162876</v>
+        <v>531.806287552262</v>
       </c>
       <c r="C12" t="n">
-        <v>453.3311322869166</v>
+        <v>426.2079469351603</v>
       </c>
       <c r="D12" t="n">
-        <v>304.3967226256653</v>
+        <v>346.1282259379343</v>
       </c>
       <c r="E12" t="n">
-        <v>214.0139562842352</v>
+        <v>255.7454595965041</v>
       </c>
       <c r="F12" t="n">
-        <v>136.3340869751455</v>
+        <v>178.0655902874144</v>
       </c>
       <c r="G12" t="n">
-        <v>68.26118484047034</v>
+        <v>68.26118484047035</v>
       </c>
       <c r="H12" t="n">
-        <v>41.1621880451551</v>
+        <v>41.16218804515511</v>
       </c>
       <c r="I12" t="n">
-        <v>41.1621880451551</v>
+        <v>41.16218804515511</v>
       </c>
       <c r="J12" t="n">
-        <v>82.5687785677151</v>
+        <v>82.56877856771513</v>
       </c>
       <c r="K12" t="n">
         <v>231.4940616403994</v>
       </c>
       <c r="L12" t="n">
-        <v>478.0650244082118</v>
+        <v>478.0650244082117</v>
       </c>
       <c r="M12" t="n">
         <v>785.1585761295448</v>
@@ -5150,22 +5150,22 @@
         <v>1614.918034625863</v>
       </c>
       <c r="T12" t="n">
-        <v>1488.854429589754</v>
+        <v>1488.854429589753</v>
       </c>
       <c r="U12" t="n">
         <v>1329.60413384666</v>
       </c>
       <c r="V12" t="n">
-        <v>1163.306714278943</v>
+        <v>1094.452025614917</v>
       </c>
       <c r="W12" t="n">
-        <v>977.9240462147665</v>
+        <v>909.0693575507408</v>
       </c>
       <c r="X12" t="n">
-        <v>838.9272346732589</v>
+        <v>770.0725460092333</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.0216245723303</v>
+        <v>631.1669359083047</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>603.1937216294452</v>
+        <v>603.1937216294443</v>
       </c>
       <c r="C13" t="n">
-        <v>503.1122273655636</v>
+        <v>503.1122273655627</v>
       </c>
       <c r="D13" t="n">
-        <v>421.8502766172532</v>
+        <v>421.8502766172522</v>
       </c>
       <c r="E13" t="n">
-        <v>342.7918716988854</v>
+        <v>342.7918716988844</v>
       </c>
       <c r="F13" t="n">
-        <v>264.7566128650004</v>
+        <v>264.7566128649994</v>
       </c>
       <c r="G13" t="n">
-        <v>165.4352149209165</v>
+        <v>165.4352149209155</v>
       </c>
       <c r="H13" t="n">
-        <v>83.86509422819898</v>
+        <v>83.86509422819901</v>
       </c>
       <c r="I13" t="n">
-        <v>41.1621880451551</v>
+        <v>41.16218804515511</v>
       </c>
       <c r="J13" t="n">
         <v>120.9763566640904</v>
@@ -5208,7 +5208,7 @@
         <v>653.6442036332155</v>
       </c>
       <c r="M13" t="n">
-        <v>992.5779069580715</v>
+        <v>992.5779069580714</v>
       </c>
       <c r="N13" t="n">
         <v>1330.491770901513</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1284.023998677465</v>
+        <v>644.4972671599311</v>
       </c>
       <c r="C14" t="n">
-        <v>983.9161704010791</v>
+        <v>344.3894388835447</v>
       </c>
       <c r="D14" t="n">
-        <v>983.9161704010791</v>
+        <v>54.97842894081955</v>
       </c>
       <c r="E14" t="n">
-        <v>983.9161704010791</v>
+        <v>54.97842894081955</v>
       </c>
       <c r="F14" t="n">
-        <v>641.7849542754968</v>
+        <v>54.97842894081955</v>
       </c>
       <c r="G14" t="n">
-        <v>294.5121631288761</v>
+        <v>54.97842894081955</v>
       </c>
       <c r="H14" t="n">
-        <v>54.97842894081958</v>
+        <v>54.97842894081955</v>
       </c>
       <c r="I14" t="n">
-        <v>41.16218804515511</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J14" t="n">
-        <v>142.2789278009795</v>
+        <v>142.2789278009786</v>
       </c>
       <c r="K14" t="n">
-        <v>344.5652271302107</v>
+        <v>344.5652271302101</v>
       </c>
       <c r="L14" t="n">
-        <v>632.4210306842293</v>
+        <v>632.4210306842288</v>
       </c>
       <c r="M14" t="n">
-        <v>984.3855134576377</v>
+        <v>984.3855134576369</v>
       </c>
       <c r="N14" t="n">
-        <v>1346.65895790869</v>
+        <v>1346.658957908689</v>
       </c>
       <c r="O14" t="n">
-        <v>1675.408237390941</v>
+        <v>1675.40823739094</v>
       </c>
       <c r="P14" t="n">
-        <v>1921.487140686697</v>
+        <v>1921.487140686696</v>
       </c>
       <c r="Q14" t="n">
-        <v>2058.109402257755</v>
+        <v>2058.109402257754</v>
       </c>
       <c r="R14" t="n">
-        <v>2058.109402257755</v>
+        <v>2058.109402257754</v>
       </c>
       <c r="S14" t="n">
-        <v>2058.109402257755</v>
+        <v>2058.109402257754</v>
       </c>
       <c r="T14" t="n">
-        <v>1916.367950988428</v>
+        <v>2058.109402257754</v>
       </c>
       <c r="U14" t="n">
-        <v>1916.367950988428</v>
+        <v>1873.349211823164</v>
       </c>
       <c r="V14" t="n">
-        <v>1889.222608595341</v>
+        <v>1872.052098074957</v>
       </c>
       <c r="W14" t="n">
-        <v>1605.308641989252</v>
+        <v>1588.138131468868</v>
       </c>
       <c r="X14" t="n">
-        <v>1605.308641989252</v>
+        <v>1283.527061871814</v>
       </c>
       <c r="Y14" t="n">
-        <v>1284.023998677465</v>
+        <v>962.2424185600275</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600.6609762162872</v>
+        <v>531.8062875522616</v>
       </c>
       <c r="C15" t="n">
-        <v>495.0626355991855</v>
+        <v>426.2079469351598</v>
       </c>
       <c r="D15" t="n">
-        <v>414.9829146019595</v>
+        <v>346.1282259379338</v>
       </c>
       <c r="E15" t="n">
-        <v>255.745459596504</v>
+        <v>255.7454595965037</v>
       </c>
       <c r="F15" t="n">
-        <v>136.3340869751455</v>
+        <v>178.0655902874139</v>
       </c>
       <c r="G15" t="n">
-        <v>68.26118484047035</v>
+        <v>109.9926881527388</v>
       </c>
       <c r="H15" t="n">
-        <v>41.16218804515511</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="I15" t="n">
-        <v>41.16218804515511</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J15" t="n">
-        <v>82.56877856771513</v>
+        <v>82.5687785677151</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4940616403994</v>
+        <v>231.4940616403993</v>
       </c>
       <c r="L15" t="n">
         <v>478.0650244082117</v>
       </c>
       <c r="M15" t="n">
-        <v>785.1585761295448</v>
+        <v>785.1585761295447</v>
       </c>
       <c r="N15" t="n">
-        <v>1114.788625295307</v>
+        <v>1114.788625295306</v>
       </c>
       <c r="O15" t="n">
-        <v>1394.115926625984</v>
+        <v>1394.115926625983</v>
       </c>
       <c r="P15" t="n">
         <v>1598.967645630461</v>
       </c>
       <c r="Q15" t="n">
-        <v>1685.986398361489</v>
+        <v>1685.986398361488</v>
       </c>
       <c r="R15" t="n">
-        <v>1685.986398361489</v>
+        <v>1685.986398361488</v>
       </c>
       <c r="S15" t="n">
-        <v>1614.918034625863</v>
+        <v>1546.063345961837</v>
       </c>
       <c r="T15" t="n">
-        <v>1488.854429589753</v>
+        <v>1419.999740925728</v>
       </c>
       <c r="U15" t="n">
-        <v>1329.60413384666</v>
+        <v>1260.749445182634</v>
       </c>
       <c r="V15" t="n">
-        <v>1163.306714278942</v>
+        <v>1094.452025614917</v>
       </c>
       <c r="W15" t="n">
-        <v>977.924046214766</v>
+        <v>909.0693575507404</v>
       </c>
       <c r="X15" t="n">
-        <v>838.9272346732585</v>
+        <v>770.0725460092328</v>
       </c>
       <c r="Y15" t="n">
-        <v>700.0216245723299</v>
+        <v>631.1669359083043</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>603.1937216294443</v>
+        <v>603.1937216294452</v>
       </c>
       <c r="C16" t="n">
-        <v>503.1122273655627</v>
+        <v>503.1122273655636</v>
       </c>
       <c r="D16" t="n">
-        <v>421.8502766172522</v>
+        <v>421.8502766172532</v>
       </c>
       <c r="E16" t="n">
-        <v>342.7918716988844</v>
+        <v>342.7918716988854</v>
       </c>
       <c r="F16" t="n">
-        <v>264.7566128649994</v>
+        <v>264.7566128650004</v>
       </c>
       <c r="G16" t="n">
-        <v>165.4352149209155</v>
+        <v>165.4352149209165</v>
       </c>
       <c r="H16" t="n">
-        <v>83.86509422819901</v>
+        <v>83.86509422819898</v>
       </c>
       <c r="I16" t="n">
-        <v>41.16218804515511</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J16" t="n">
         <v>120.9763566640904</v>
@@ -5463,25 +5463,25 @@
         <v>1939.739170172679</v>
       </c>
       <c r="S16" t="n">
-        <v>1808.660518144607</v>
+        <v>1808.660518144608</v>
       </c>
       <c r="T16" t="n">
-        <v>1653.72652326971</v>
+        <v>1653.726523269711</v>
       </c>
       <c r="U16" t="n">
-        <v>1433.452531423952</v>
+        <v>1433.452531423953</v>
       </c>
       <c r="V16" t="n">
-        <v>1247.622731882091</v>
+        <v>1247.622731882092</v>
       </c>
       <c r="W16" t="n">
         <v>1027.060250509156</v>
       </c>
       <c r="X16" t="n">
-        <v>867.9253882751635</v>
+        <v>867.9253882751643</v>
       </c>
       <c r="Y16" t="n">
-        <v>715.9874977956588</v>
+        <v>715.9874977956596</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.0771032558946</v>
+        <v>1047.499759251577</v>
       </c>
       <c r="C17" t="n">
-        <v>765.0771032558946</v>
+        <v>1047.499759251577</v>
       </c>
       <c r="D17" t="n">
-        <v>765.0771032558946</v>
+        <v>1047.499759251577</v>
       </c>
       <c r="E17" t="n">
-        <v>448.1435393216757</v>
+        <v>730.5661953173581</v>
       </c>
       <c r="F17" t="n">
-        <v>448.1435393216757</v>
+        <v>388.4349791917758</v>
       </c>
       <c r="G17" t="n">
-        <v>294.5121631288761</v>
+        <v>41.16218804515507</v>
       </c>
       <c r="H17" t="n">
-        <v>54.97842894081955</v>
+        <v>41.16218804515507</v>
       </c>
       <c r="I17" t="n">
-        <v>41.16218804515509</v>
+        <v>41.16218804515507</v>
       </c>
       <c r="J17" t="n">
-        <v>142.2789278009786</v>
+        <v>142.2789278009789</v>
       </c>
       <c r="K17" t="n">
-        <v>344.5652271302101</v>
+        <v>344.56522713021</v>
       </c>
       <c r="L17" t="n">
-        <v>632.4210306842288</v>
+        <v>632.4210306842285</v>
       </c>
       <c r="M17" t="n">
-        <v>984.3855134576369</v>
+        <v>984.3855134576368</v>
       </c>
       <c r="N17" t="n">
-        <v>1346.65895790869</v>
+        <v>1346.658957908689</v>
       </c>
       <c r="O17" t="n">
         <v>1675.40823739094</v>
@@ -5542,25 +5542,25 @@
         <v>2058.109402257754</v>
       </c>
       <c r="S17" t="n">
-        <v>1992.631934170921</v>
+        <v>1992.63193417092</v>
       </c>
       <c r="T17" t="n">
-        <v>1992.631934170921</v>
+        <v>1850.890482901592</v>
       </c>
       <c r="U17" t="n">
-        <v>1992.631934170921</v>
+        <v>1686.52955396346</v>
       </c>
       <c r="V17" t="n">
-        <v>1992.631934170921</v>
+        <v>1686.52955396346</v>
       </c>
       <c r="W17" t="n">
-        <v>1708.717967564832</v>
+        <v>1686.52955396346</v>
       </c>
       <c r="X17" t="n">
-        <v>1404.106897967778</v>
+        <v>1686.52955396346</v>
       </c>
       <c r="Y17" t="n">
-        <v>1082.822254655991</v>
+        <v>1365.244910651674</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.6609762162867</v>
+        <v>600.6609762162863</v>
       </c>
       <c r="C18" t="n">
-        <v>495.062635599185</v>
+        <v>495.0626355991845</v>
       </c>
       <c r="D18" t="n">
-        <v>414.982914601959</v>
+        <v>414.9829146019586</v>
       </c>
       <c r="E18" t="n">
-        <v>255.7454595965035</v>
+        <v>282.8686449482605</v>
       </c>
       <c r="F18" t="n">
         <v>136.3340869751455</v>
       </c>
       <c r="G18" t="n">
-        <v>68.26118484047032</v>
+        <v>68.26118484047031</v>
       </c>
       <c r="H18" t="n">
-        <v>41.16218804515509</v>
+        <v>41.16218804515507</v>
       </c>
       <c r="I18" t="n">
-        <v>41.16218804515509</v>
+        <v>41.16218804515507</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5687785677151</v>
+        <v>82.56877856771501</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4940616403993</v>
+        <v>231.4940616403992</v>
       </c>
       <c r="L18" t="n">
-        <v>478.0650244082117</v>
+        <v>478.0650244082115</v>
       </c>
       <c r="M18" t="n">
-        <v>785.1585761295447</v>
+        <v>785.1585761295444</v>
       </c>
       <c r="N18" t="n">
         <v>1114.788625295306</v>
@@ -5612,7 +5612,7 @@
         <v>1394.115926625983</v>
       </c>
       <c r="P18" t="n">
-        <v>1598.967645630461</v>
+        <v>1598.96764563046</v>
       </c>
       <c r="Q18" t="n">
         <v>1685.986398361488</v>
@@ -5624,22 +5624,22 @@
         <v>1614.918034625862</v>
       </c>
       <c r="T18" t="n">
-        <v>1488.854429589753</v>
+        <v>1488.854429589752</v>
       </c>
       <c r="U18" t="n">
         <v>1329.604133846659</v>
       </c>
       <c r="V18" t="n">
-        <v>1163.306714278942</v>
+        <v>1163.306714278941</v>
       </c>
       <c r="W18" t="n">
-        <v>977.9240462147656</v>
+        <v>977.9240462147651</v>
       </c>
       <c r="X18" t="n">
-        <v>838.927234673258</v>
+        <v>838.9272346732575</v>
       </c>
       <c r="Y18" t="n">
-        <v>700.0216245723294</v>
+        <v>700.021624572329</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>603.1937216294443</v>
+        <v>603.1937216294446</v>
       </c>
       <c r="C19" t="n">
-        <v>503.1122273655627</v>
+        <v>503.1122273655629</v>
       </c>
       <c r="D19" t="n">
-        <v>421.8502766172522</v>
+        <v>421.8502766172525</v>
       </c>
       <c r="E19" t="n">
-        <v>342.7918716988844</v>
+        <v>342.7918716988847</v>
       </c>
       <c r="F19" t="n">
-        <v>264.7566128649994</v>
+        <v>264.7566128649996</v>
       </c>
       <c r="G19" t="n">
-        <v>165.4352149209155</v>
+        <v>165.4352149209154</v>
       </c>
       <c r="H19" t="n">
         <v>83.86509422819898</v>
       </c>
       <c r="I19" t="n">
-        <v>41.16218804515509</v>
+        <v>41.16218804515507</v>
       </c>
       <c r="J19" t="n">
-        <v>120.9763566640904</v>
+        <v>120.9763566640901</v>
       </c>
       <c r="K19" t="n">
-        <v>338.5591390779302</v>
+        <v>338.55913907793</v>
       </c>
       <c r="L19" t="n">
-        <v>653.6442036332154</v>
+        <v>653.6442036332151</v>
       </c>
       <c r="M19" t="n">
-        <v>992.5779069580713</v>
+        <v>992.5779069580708</v>
       </c>
       <c r="N19" t="n">
         <v>1330.491770901512</v>
@@ -5706,7 +5706,7 @@
         <v>1653.72652326971</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.452531423952</v>
+        <v>1433.452531423953</v>
       </c>
       <c r="V19" t="n">
         <v>1247.622731882091</v>
@@ -5715,10 +5715,10 @@
         <v>1027.060250509156</v>
       </c>
       <c r="X19" t="n">
-        <v>867.9253882751635</v>
+        <v>867.9253882751638</v>
       </c>
       <c r="Y19" t="n">
-        <v>715.9874977956588</v>
+        <v>715.987497795659</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>744.3824362130225</v>
+        <v>1731.607760553836</v>
       </c>
       <c r="C20" t="n">
-        <v>744.3824362130225</v>
+        <v>1590.260744278023</v>
       </c>
       <c r="D20" t="n">
-        <v>744.3824362130225</v>
+        <v>1300.849734335298</v>
       </c>
       <c r="E20" t="n">
-        <v>744.3824362130225</v>
+        <v>983.9161704010791</v>
       </c>
       <c r="F20" t="n">
-        <v>402.2512200874403</v>
+        <v>641.7849542754968</v>
       </c>
       <c r="G20" t="n">
-        <v>54.97842894081956</v>
+        <v>294.5121631288761</v>
       </c>
       <c r="H20" t="n">
         <v>54.97842894081956</v>
@@ -5779,25 +5779,25 @@
         <v>2058.109402257754</v>
       </c>
       <c r="S20" t="n">
-        <v>1993.827839234912</v>
+        <v>2058.109402257754</v>
       </c>
       <c r="T20" t="n">
-        <v>1852.086387965584</v>
+        <v>1916.367950988426</v>
       </c>
       <c r="U20" t="n">
-        <v>1667.326197530994</v>
+        <v>1731.607760553836</v>
       </c>
       <c r="V20" t="n">
-        <v>1667.326197530994</v>
+        <v>1731.607760553836</v>
       </c>
       <c r="W20" t="n">
-        <v>1383.412230924905</v>
+        <v>1731.607760553836</v>
       </c>
       <c r="X20" t="n">
-        <v>1383.412230924905</v>
+        <v>1731.607760553836</v>
       </c>
       <c r="Y20" t="n">
-        <v>1062.127587613119</v>
+        <v>1731.607760553836</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.6609762162863</v>
+        <v>490.0747842399931</v>
       </c>
       <c r="C21" t="n">
-        <v>495.0626355991845</v>
+        <v>384.4764436228913</v>
       </c>
       <c r="D21" t="n">
-        <v>414.9829146019586</v>
+        <v>304.3967226256653</v>
       </c>
       <c r="E21" t="n">
-        <v>282.8686449482605</v>
+        <v>214.0139562842352</v>
       </c>
       <c r="F21" t="n">
         <v>136.3340869751455</v>
@@ -5873,10 +5873,10 @@
         <v>977.9240462147651</v>
       </c>
       <c r="X21" t="n">
-        <v>838.9272346732575</v>
+        <v>770.0725460092323</v>
       </c>
       <c r="Y21" t="n">
-        <v>700.021624572329</v>
+        <v>589.4354325960358</v>
       </c>
     </row>
     <row r="22">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1061.316000147242</v>
+        <v>730.5661953173581</v>
       </c>
       <c r="C23" t="n">
-        <v>1061.316000147242</v>
+        <v>730.5661953173581</v>
       </c>
       <c r="D23" t="n">
-        <v>1061.316000147242</v>
+        <v>730.5661953173581</v>
       </c>
       <c r="E23" t="n">
-        <v>744.3824362130225</v>
+        <v>730.5661953173581</v>
       </c>
       <c r="F23" t="n">
-        <v>402.2512200874403</v>
+        <v>388.4349791917758</v>
       </c>
       <c r="G23" t="n">
-        <v>54.97842894081956</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="H23" t="n">
-        <v>54.97842894081956</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="I23" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J23" t="n">
-        <v>142.2789278009787</v>
+        <v>142.2789278009791</v>
       </c>
       <c r="K23" t="n">
-        <v>344.5652271302099</v>
+        <v>344.5652271302106</v>
       </c>
       <c r="L23" t="n">
-        <v>632.4210306842283</v>
+        <v>632.4210306842294</v>
       </c>
       <c r="M23" t="n">
-        <v>984.3855134576364</v>
+        <v>984.3855134576374</v>
       </c>
       <c r="N23" t="n">
-        <v>1346.658957908689</v>
+        <v>1346.65895790869</v>
       </c>
       <c r="O23" t="n">
-        <v>1675.40823739094</v>
+        <v>1675.408237390941</v>
       </c>
       <c r="P23" t="n">
         <v>1921.487140686696</v>
@@ -6019,22 +6019,22 @@
         <v>1992.63193417092</v>
       </c>
       <c r="T23" t="n">
-        <v>1850.890482901592</v>
+        <v>1992.63193417092</v>
       </c>
       <c r="U23" t="n">
-        <v>1700.345794859124</v>
+        <v>1807.871743736331</v>
       </c>
       <c r="V23" t="n">
-        <v>1700.345794859124</v>
+        <v>1545.663545056785</v>
       </c>
       <c r="W23" t="n">
-        <v>1700.345794859124</v>
+        <v>1261.749578450696</v>
       </c>
       <c r="X23" t="n">
-        <v>1700.345794859124</v>
+        <v>1261.749578450696</v>
       </c>
       <c r="Y23" t="n">
-        <v>1379.061151547338</v>
+        <v>1048.311346717455</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>490.0747842399931</v>
+        <v>558.9294729040183</v>
       </c>
       <c r="C24" t="n">
         <v>384.4764436228913</v>
@@ -6059,16 +6059,16 @@
         <v>136.3340869751455</v>
       </c>
       <c r="G24" t="n">
-        <v>68.26118484047031</v>
+        <v>68.26118484047032</v>
       </c>
       <c r="H24" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="I24" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J24" t="n">
-        <v>82.56877856771501</v>
+        <v>82.56877856771504</v>
       </c>
       <c r="K24" t="n">
         <v>231.4940616403992</v>
@@ -6104,16 +6104,16 @@
         <v>1329.604133846659</v>
       </c>
       <c r="V24" t="n">
-        <v>1094.452025614916</v>
+        <v>1163.306714278941</v>
       </c>
       <c r="W24" t="n">
-        <v>867.3378542384719</v>
+        <v>977.9240462147651</v>
       </c>
       <c r="X24" t="n">
-        <v>728.3410426969643</v>
+        <v>797.1957313609896</v>
       </c>
       <c r="Y24" t="n">
-        <v>589.4354325960358</v>
+        <v>658.290121260061</v>
       </c>
     </row>
     <row r="25">
@@ -6144,7 +6144,7 @@
         <v>83.86509422819898</v>
       </c>
       <c r="I25" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J25" t="n">
         <v>120.9763566640903</v>
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>375.6454767089554</v>
+        <v>1198.817841696897</v>
       </c>
       <c r="C26" t="n">
-        <v>41.16218804515507</v>
+        <v>1198.817841696897</v>
       </c>
       <c r="D26" t="n">
-        <v>41.16218804515507</v>
+        <v>1198.817841696897</v>
       </c>
       <c r="E26" t="n">
-        <v>41.16218804515507</v>
+        <v>847.5088173752642</v>
       </c>
       <c r="F26" t="n">
-        <v>41.16218804515507</v>
+        <v>471.0021408622682</v>
       </c>
       <c r="G26" t="n">
-        <v>41.16218804515507</v>
+        <v>89.35388932823351</v>
       </c>
       <c r="H26" t="n">
-        <v>41.16218804515507</v>
+        <v>89.35388932823351</v>
       </c>
       <c r="I26" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J26" t="n">
         <v>142.2789278009788</v>
       </c>
       <c r="K26" t="n">
-        <v>344.5652271302101</v>
+        <v>344.5652271302099</v>
       </c>
       <c r="L26" t="n">
-        <v>632.4210306842286</v>
+        <v>632.4210306842284</v>
       </c>
       <c r="M26" t="n">
-        <v>984.3855134576368</v>
+        <v>984.3855134576365</v>
       </c>
       <c r="N26" t="n">
         <v>1346.658957908689</v>
@@ -6244,7 +6244,7 @@
         <v>1675.40823739094</v>
       </c>
       <c r="P26" t="n">
-        <v>1921.487140686696</v>
+        <v>1921.487140686695</v>
       </c>
       <c r="Q26" t="n">
         <v>2058.109402257754</v>
@@ -6259,19 +6259,19 @@
         <v>1958.256473783506</v>
       </c>
       <c r="U26" t="n">
-        <v>1739.120822961502</v>
+        <v>1958.256473783506</v>
       </c>
       <c r="V26" t="n">
-        <v>1442.537163894543</v>
+        <v>1958.256473783506</v>
       </c>
       <c r="W26" t="n">
-        <v>1422.412722180135</v>
+        <v>1889.924983468876</v>
       </c>
       <c r="X26" t="n">
-        <v>1083.426192195666</v>
+        <v>1550.938453484408</v>
       </c>
       <c r="Y26" t="n">
-        <v>727.7660884964658</v>
+        <v>1550.938453484408</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>696.3275465644767</v>
+        <v>696.3275465644766</v>
       </c>
       <c r="C27" t="n">
-        <v>556.3537455599611</v>
+        <v>556.353745559961</v>
       </c>
       <c r="D27" t="n">
         <v>441.8985641753212</v>
@@ -6299,37 +6299,37 @@
         <v>102.6366452278843</v>
       </c>
       <c r="H27" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="I27" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J27" t="n">
-        <v>116.3618702016218</v>
+        <v>172.3198085455359</v>
       </c>
       <c r="K27" t="n">
-        <v>399.4057652844604</v>
+        <v>355.0381832521269</v>
       </c>
       <c r="L27" t="n">
-        <v>679.7698196861795</v>
+        <v>635.402237653846</v>
       </c>
       <c r="M27" t="n">
-        <v>1020.656463041419</v>
+        <v>976.2888810090858</v>
       </c>
       <c r="N27" t="n">
-        <v>1384.079603841088</v>
+        <v>1339.712021808754</v>
       </c>
       <c r="O27" t="n">
-        <v>1697.199996805671</v>
+        <v>1652.832414773338</v>
       </c>
       <c r="P27" t="n">
-        <v>1935.844807444056</v>
+        <v>1891.477225411722</v>
       </c>
       <c r="Q27" t="n">
-        <v>2056.65665180899</v>
+        <v>2012.289069776657</v>
       </c>
       <c r="R27" t="n">
-        <v>2056.65665180899</v>
+        <v>2056.656651808989</v>
       </c>
       <c r="S27" t="n">
         <v>1951.212827685949</v>
@@ -6341,7 +6341,7 @@
         <v>1597.148006131919</v>
       </c>
       <c r="V27" t="n">
-        <v>1396.475126176788</v>
+        <v>1396.475126176787</v>
       </c>
       <c r="W27" t="n">
         <v>1176.716997725197</v>
@@ -6350,7 +6350,7 @@
         <v>1003.344725796276</v>
       </c>
       <c r="Y27" t="n">
-        <v>830.0636553079335</v>
+        <v>830.0636553079332</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.7660557576306</v>
+        <v>526.2162725685084</v>
       </c>
       <c r="C28" t="n">
-        <v>357.7660557576306</v>
+        <v>391.7593179172129</v>
       </c>
       <c r="D28" t="n">
-        <v>357.7660557576306</v>
+        <v>276.1219067814886</v>
       </c>
       <c r="E28" t="n">
-        <v>357.7660557576306</v>
+        <v>276.1219067814886</v>
       </c>
       <c r="F28" t="n">
-        <v>357.7660557576306</v>
+        <v>276.1219067814886</v>
       </c>
       <c r="G28" t="n">
-        <v>234.1861356957434</v>
+        <v>157.1077691252855</v>
       </c>
       <c r="H28" t="n">
-        <v>118.2405546156129</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="I28" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J28" t="n">
-        <v>87.28496793838592</v>
+        <v>87.28496793838595</v>
       </c>
       <c r="K28" t="n">
         <v>271.1763616265214</v>
       </c>
       <c r="L28" t="n">
-        <v>552.570037456102</v>
+        <v>552.5700374561021</v>
       </c>
       <c r="M28" t="n">
-        <v>857.8123520552533</v>
+        <v>857.8123520552535</v>
       </c>
       <c r="N28" t="n">
         <v>1162.03482727299</v>
@@ -6405,31 +6405,31 @@
         <v>1639.89911211926</v>
       </c>
       <c r="Q28" t="n">
-        <v>1712.462869082473</v>
+        <v>1712.462869082474</v>
       </c>
       <c r="R28" t="n">
         <v>1635.83259997963</v>
       </c>
       <c r="S28" t="n">
-        <v>1470.378487564144</v>
+        <v>1635.83259997963</v>
       </c>
       <c r="T28" t="n">
-        <v>1281.069032301833</v>
+        <v>1635.83259997963</v>
       </c>
       <c r="U28" t="n">
-        <v>1026.419580068661</v>
+        <v>1381.183147746458</v>
       </c>
       <c r="V28" t="n">
-        <v>806.2143201393859</v>
+        <v>1160.977887817182</v>
       </c>
       <c r="W28" t="n">
-        <v>551.2763783790366</v>
+        <v>906.0399460568331</v>
       </c>
       <c r="X28" t="n">
-        <v>357.7660557576306</v>
+        <v>712.5296234354271</v>
       </c>
       <c r="Y28" t="n">
-        <v>357.7660557576306</v>
+        <v>526.2162725685084</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1485.109429077619</v>
+        <v>757.29372824299</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.626140413819</v>
+        <v>422.8104395791897</v>
       </c>
       <c r="D29" t="n">
-        <v>1150.626140413819</v>
+        <v>422.8104395791897</v>
       </c>
       <c r="E29" t="n">
-        <v>799.3171160921859</v>
+        <v>422.8104395791897</v>
       </c>
       <c r="F29" t="n">
         <v>422.8104395791897</v>
       </c>
       <c r="G29" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="H29" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="I29" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J29" t="n">
         <v>142.2789278009788</v>
@@ -6469,19 +6469,19 @@
         <v>344.5652271302099</v>
       </c>
       <c r="L29" t="n">
-        <v>632.4210306842284</v>
+        <v>632.4210306842291</v>
       </c>
       <c r="M29" t="n">
-        <v>984.3855134576365</v>
+        <v>984.3855134576372</v>
       </c>
       <c r="N29" t="n">
-        <v>1346.658957908689</v>
+        <v>1346.65895790869</v>
       </c>
       <c r="O29" t="n">
         <v>1675.40823739094</v>
       </c>
       <c r="P29" t="n">
-        <v>1921.487140686695</v>
+        <v>1921.487140686696</v>
       </c>
       <c r="Q29" t="n">
         <v>2058.109402257754</v>
@@ -6490,25 +6490,25 @@
         <v>2058.109402257754</v>
       </c>
       <c r="S29" t="n">
-        <v>2058.109402257754</v>
+        <v>1980.177885370911</v>
       </c>
       <c r="T29" t="n">
-        <v>2058.109402257754</v>
+        <v>1804.060973714169</v>
       </c>
       <c r="U29" t="n">
-        <v>2058.109402257754</v>
+        <v>1804.060973714169</v>
       </c>
       <c r="V29" t="n">
-        <v>2058.109402257754</v>
+        <v>1804.060973714169</v>
       </c>
       <c r="W29" t="n">
-        <v>2058.109402257754</v>
+        <v>1804.060973714169</v>
       </c>
       <c r="X29" t="n">
-        <v>2058.109402257754</v>
+        <v>1465.074443729701</v>
       </c>
       <c r="Y29" t="n">
-        <v>1837.230040865129</v>
+        <v>1109.4143400305</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>696.3275465644767</v>
+        <v>696.3275465644766</v>
       </c>
       <c r="C30" t="n">
-        <v>556.3537455599611</v>
+        <v>556.353745559961</v>
       </c>
       <c r="D30" t="n">
         <v>441.8985641753212</v>
@@ -6536,37 +6536,37 @@
         <v>102.6366452278843</v>
       </c>
       <c r="H30" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="I30" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J30" t="n">
-        <v>216.6873905778695</v>
+        <v>116.3618702016219</v>
       </c>
       <c r="K30" t="n">
-        <v>399.4057652844604</v>
+        <v>299.0802449082129</v>
       </c>
       <c r="L30" t="n">
-        <v>679.7698196861795</v>
+        <v>579.4442993099319</v>
       </c>
       <c r="M30" t="n">
-        <v>1020.656463041419</v>
+        <v>920.3309426651717</v>
       </c>
       <c r="N30" t="n">
-        <v>1384.079603841088</v>
+        <v>1283.75408346484</v>
       </c>
       <c r="O30" t="n">
-        <v>1697.199996805671</v>
+        <v>1596.874476429424</v>
       </c>
       <c r="P30" t="n">
-        <v>1935.844807444056</v>
+        <v>1835.519287067808</v>
       </c>
       <c r="Q30" t="n">
-        <v>2056.65665180899</v>
+        <v>2056.656651808989</v>
       </c>
       <c r="R30" t="n">
-        <v>2056.65665180899</v>
+        <v>2056.656651808989</v>
       </c>
       <c r="S30" t="n">
         <v>1951.212827685949</v>
@@ -6578,7 +6578,7 @@
         <v>1597.148006131919</v>
       </c>
       <c r="V30" t="n">
-        <v>1396.475126176788</v>
+        <v>1396.475126176787</v>
       </c>
       <c r="W30" t="n">
         <v>1176.716997725197</v>
@@ -6587,7 +6587,7 @@
         <v>1003.344725796276</v>
       </c>
       <c r="Y30" t="n">
-        <v>830.0636553079335</v>
+        <v>830.0636553079332</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>321.1189973692028</v>
+        <v>709.3649896900464</v>
       </c>
       <c r="C31" t="n">
-        <v>321.1189973692028</v>
+        <v>709.3649896900464</v>
       </c>
       <c r="D31" t="n">
-        <v>205.4815862334785</v>
+        <v>593.727578554322</v>
       </c>
       <c r="E31" t="n">
-        <v>205.4815862334785</v>
+        <v>480.2937132485403</v>
       </c>
       <c r="F31" t="n">
-        <v>157.1077691252855</v>
+        <v>367.8829940272412</v>
       </c>
       <c r="G31" t="n">
-        <v>157.1077691252855</v>
+        <v>234.1861356957434</v>
       </c>
       <c r="H31" t="n">
-        <v>41.16218804515507</v>
+        <v>118.2405546156129</v>
       </c>
       <c r="I31" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J31" t="n">
-        <v>87.28496793838592</v>
+        <v>87.28496793838595</v>
       </c>
       <c r="K31" t="n">
         <v>271.1763616265214</v>
       </c>
       <c r="L31" t="n">
-        <v>552.570037456102</v>
+        <v>552.5700374561021</v>
       </c>
       <c r="M31" t="n">
-        <v>857.8123520552533</v>
+        <v>857.8123520552535</v>
       </c>
       <c r="N31" t="n">
         <v>1162.03482727299</v>
@@ -6642,31 +6642,31 @@
         <v>1639.89911211926</v>
       </c>
       <c r="Q31" t="n">
-        <v>1712.462869082473</v>
+        <v>1712.462869082474</v>
       </c>
       <c r="R31" t="n">
-        <v>1712.462869082473</v>
+        <v>1635.83259997963</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.008756666987</v>
+        <v>1470.378487564144</v>
       </c>
       <c r="T31" t="n">
-        <v>1357.699301404677</v>
+        <v>1470.378487564144</v>
       </c>
       <c r="U31" t="n">
-        <v>1103.049849171505</v>
+        <v>1470.378487564144</v>
       </c>
       <c r="V31" t="n">
-        <v>1103.049849171505</v>
+        <v>1470.378487564144</v>
       </c>
       <c r="W31" t="n">
-        <v>848.1119074111559</v>
+        <v>1215.440545803795</v>
       </c>
       <c r="X31" t="n">
-        <v>654.6015847897499</v>
+        <v>1021.930223182389</v>
       </c>
       <c r="Y31" t="n">
-        <v>468.2882339228312</v>
+        <v>835.6168723154699</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1114.468537948816</v>
+        <v>1469.399561874291</v>
       </c>
       <c r="C32" t="n">
-        <v>814.3607096724296</v>
+        <v>1469.399561874291</v>
       </c>
       <c r="D32" t="n">
-        <v>700.2269681049562</v>
+        <v>1179.988551931566</v>
       </c>
       <c r="E32" t="n">
-        <v>383.2934041707373</v>
+        <v>863.0549879973469</v>
       </c>
       <c r="F32" t="n">
-        <v>41.16218804515507</v>
+        <v>641.7849542754968</v>
       </c>
       <c r="G32" t="n">
-        <v>41.16218804515507</v>
+        <v>294.5121631288761</v>
       </c>
       <c r="H32" t="n">
-        <v>41.16218804515507</v>
+        <v>54.97842894081958</v>
       </c>
       <c r="I32" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J32" t="n">
         <v>142.2789278009788</v>
@@ -6730,22 +6730,22 @@
         <v>2058.109402257754</v>
       </c>
       <c r="T32" t="n">
-        <v>2058.109402257754</v>
+        <v>1916.367950988426</v>
       </c>
       <c r="U32" t="n">
-        <v>2058.109402257754</v>
+        <v>1731.607760553836</v>
       </c>
       <c r="V32" t="n">
-        <v>2058.109402257754</v>
+        <v>1469.399561874291</v>
       </c>
       <c r="W32" t="n">
-        <v>2058.109402257754</v>
+        <v>1469.399561874291</v>
       </c>
       <c r="X32" t="n">
-        <v>1753.498332660699</v>
+        <v>1469.399561874291</v>
       </c>
       <c r="Y32" t="n">
-        <v>1432.213689348913</v>
+        <v>1469.399561874291</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>600.6609762162867</v>
+        <v>600.6609762162863</v>
       </c>
       <c r="C33" t="n">
-        <v>495.062635599185</v>
+        <v>495.0626355991845</v>
       </c>
       <c r="D33" t="n">
-        <v>414.9829146019591</v>
+        <v>373.2514112896906</v>
       </c>
       <c r="E33" t="n">
-        <v>255.7454595965036</v>
+        <v>282.8686449482605</v>
       </c>
       <c r="F33" t="n">
-        <v>136.3340869751454</v>
+        <v>136.3340869751455</v>
       </c>
       <c r="G33" t="n">
-        <v>68.26118484047029</v>
+        <v>68.26118484047032</v>
       </c>
       <c r="H33" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="I33" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J33" t="n">
-        <v>82.56877856771501</v>
+        <v>82.56877856771504</v>
       </c>
       <c r="K33" t="n">
         <v>231.4940616403992</v>
@@ -6815,16 +6815,16 @@
         <v>1329.604133846659</v>
       </c>
       <c r="V33" t="n">
-        <v>1163.306714278942</v>
+        <v>1163.306714278941</v>
       </c>
       <c r="W33" t="n">
-        <v>977.9240462147656</v>
+        <v>977.9240462147651</v>
       </c>
       <c r="X33" t="n">
-        <v>838.927234673258</v>
+        <v>838.9272346732575</v>
       </c>
       <c r="Y33" t="n">
-        <v>700.0216245723294</v>
+        <v>700.021624572329</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.1937216294441</v>
+        <v>603.1937216294443</v>
       </c>
       <c r="C34" t="n">
-        <v>503.1122273655625</v>
+        <v>503.1122273655627</v>
       </c>
       <c r="D34" t="n">
-        <v>421.8502766172521</v>
+        <v>421.8502766172522</v>
       </c>
       <c r="E34" t="n">
-        <v>342.7918716988843</v>
+        <v>342.7918716988844</v>
       </c>
       <c r="F34" t="n">
-        <v>264.7566128649993</v>
+        <v>264.7566128649994</v>
       </c>
       <c r="G34" t="n">
-        <v>165.4352149209154</v>
+        <v>165.4352149209155</v>
       </c>
       <c r="H34" t="n">
-        <v>83.86509422819896</v>
+        <v>83.86509422819898</v>
       </c>
       <c r="I34" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J34" t="n">
         <v>120.9763566640903</v>
@@ -6864,10 +6864,10 @@
         <v>338.5591390779302</v>
       </c>
       <c r="L34" t="n">
-        <v>653.6442036332154</v>
+        <v>653.6442036332153</v>
       </c>
       <c r="M34" t="n">
-        <v>992.5779069580713</v>
+        <v>992.577906958071</v>
       </c>
       <c r="N34" t="n">
         <v>1330.491770901512</v>
@@ -6879,13 +6879,13 @@
         <v>1875.738833199191</v>
       </c>
       <c r="Q34" t="n">
-        <v>1981.993978888108</v>
+        <v>1981.993978888109</v>
       </c>
       <c r="R34" t="n">
-        <v>1939.739170172678</v>
+        <v>1939.739170172679</v>
       </c>
       <c r="S34" t="n">
-        <v>1808.660518144606</v>
+        <v>1808.660518144607</v>
       </c>
       <c r="T34" t="n">
         <v>1653.72652326971</v>
@@ -6894,16 +6894,16 @@
         <v>1433.452531423952</v>
       </c>
       <c r="V34" t="n">
-        <v>1247.62273188209</v>
+        <v>1247.622731882091</v>
       </c>
       <c r="W34" t="n">
-        <v>1027.060250509155</v>
+        <v>1027.060250509156</v>
       </c>
       <c r="X34" t="n">
-        <v>867.9253882751632</v>
+        <v>867.9253882751635</v>
       </c>
       <c r="Y34" t="n">
-        <v>715.9874977956584</v>
+        <v>715.9874977956588</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1044.490264489409</v>
+        <v>397.1096450664018</v>
       </c>
       <c r="C35" t="n">
-        <v>744.3824362130225</v>
+        <v>397.1096450664018</v>
       </c>
       <c r="D35" t="n">
-        <v>744.3824362130225</v>
+        <v>397.1096450664018</v>
       </c>
       <c r="E35" t="n">
-        <v>744.3824362130225</v>
+        <v>397.1096450664018</v>
       </c>
       <c r="F35" t="n">
-        <v>402.2512200874403</v>
+        <v>54.97842894081956</v>
       </c>
       <c r="G35" t="n">
         <v>54.97842894081956</v>
@@ -6937,16 +6937,16 @@
         <v>41.16218804515507</v>
       </c>
       <c r="J35" t="n">
-        <v>142.2789278009789</v>
+        <v>142.2789278009787</v>
       </c>
       <c r="K35" t="n">
-        <v>344.5652271302104</v>
+        <v>344.5652271302099</v>
       </c>
       <c r="L35" t="n">
-        <v>632.421030684229</v>
+        <v>632.4210306842288</v>
       </c>
       <c r="M35" t="n">
-        <v>984.3855134576368</v>
+        <v>984.3855134576365</v>
       </c>
       <c r="N35" t="n">
         <v>1346.658957908689</v>
@@ -6964,25 +6964,25 @@
         <v>2058.109402257754</v>
       </c>
       <c r="S35" t="n">
-        <v>2058.109402257754</v>
+        <v>1992.63193417092</v>
       </c>
       <c r="T35" t="n">
-        <v>2058.109402257754</v>
+        <v>1850.890482901592</v>
       </c>
       <c r="U35" t="n">
-        <v>2058.109402257754</v>
+        <v>1666.130292467002</v>
       </c>
       <c r="V35" t="n">
-        <v>2058.109402257754</v>
+        <v>1403.922093787457</v>
       </c>
       <c r="W35" t="n">
-        <v>1774.195435651665</v>
+        <v>1120.008127181368</v>
       </c>
       <c r="X35" t="n">
-        <v>1469.58436605461</v>
+        <v>815.3970575843135</v>
       </c>
       <c r="Y35" t="n">
-        <v>1362.235415889505</v>
+        <v>494.1124142725271</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>531.8062875522614</v>
+        <v>490.0747842399931</v>
       </c>
       <c r="C36" t="n">
-        <v>426.2079469351597</v>
+        <v>384.4764436228913</v>
       </c>
       <c r="D36" t="n">
-        <v>346.1282259379338</v>
+        <v>304.3967226256653</v>
       </c>
       <c r="E36" t="n">
-        <v>255.7454595965036</v>
+        <v>214.0139562842352</v>
       </c>
       <c r="F36" t="n">
-        <v>136.3340869751454</v>
+        <v>136.3340869751455</v>
       </c>
       <c r="G36" t="n">
-        <v>68.26118484047029</v>
+        <v>68.26118484047031</v>
       </c>
       <c r="H36" t="n">
         <v>41.16218804515507</v>
@@ -7052,16 +7052,16 @@
         <v>1329.604133846659</v>
       </c>
       <c r="V36" t="n">
-        <v>1163.306714278942</v>
+        <v>1094.452025614916</v>
       </c>
       <c r="W36" t="n">
-        <v>977.9240462147656</v>
+        <v>867.3378542384719</v>
       </c>
       <c r="X36" t="n">
-        <v>838.927234673258</v>
+        <v>728.3410426969643</v>
       </c>
       <c r="Y36" t="n">
-        <v>631.1669359083041</v>
+        <v>589.4354325960358</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>603.1937216294444</v>
+        <v>603.1937216294443</v>
       </c>
       <c r="C37" t="n">
-        <v>503.1122273655628</v>
+        <v>503.1122273655627</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8502766172525</v>
+        <v>421.8502766172522</v>
       </c>
       <c r="E37" t="n">
-        <v>342.7918716988847</v>
+        <v>342.7918716988844</v>
       </c>
       <c r="F37" t="n">
-        <v>264.7566128649996</v>
+        <v>264.7566128649994</v>
       </c>
       <c r="G37" t="n">
         <v>165.4352149209155</v>
       </c>
       <c r="H37" t="n">
-        <v>83.86509422819904</v>
+        <v>83.86509422819898</v>
       </c>
       <c r="I37" t="n">
         <v>41.16218804515507</v>
@@ -7098,13 +7098,13 @@
         <v>120.9763566640903</v>
       </c>
       <c r="K37" t="n">
-        <v>338.5591390779301</v>
+        <v>338.5591390779302</v>
       </c>
       <c r="L37" t="n">
         <v>653.6442036332153</v>
       </c>
       <c r="M37" t="n">
-        <v>992.5779069580713</v>
+        <v>992.577906958071</v>
       </c>
       <c r="N37" t="n">
         <v>1330.491770901512</v>
@@ -7122,13 +7122,13 @@
         <v>1939.739170172679</v>
       </c>
       <c r="S37" t="n">
-        <v>1808.660518144608</v>
+        <v>1808.660518144607</v>
       </c>
       <c r="T37" t="n">
-        <v>1653.726523269711</v>
+        <v>1653.72652326971</v>
       </c>
       <c r="U37" t="n">
-        <v>1433.452531423953</v>
+        <v>1433.452531423952</v>
       </c>
       <c r="V37" t="n">
         <v>1247.622731882091</v>
@@ -7137,7 +7137,7 @@
         <v>1027.060250509156</v>
       </c>
       <c r="X37" t="n">
-        <v>867.9253882751636</v>
+        <v>867.9253882751635</v>
       </c>
       <c r="Y37" t="n">
         <v>715.9874977956588</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1873.349211823164</v>
+        <v>1047.499759251577</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.241383546777</v>
+        <v>1047.499759251577</v>
       </c>
       <c r="D38" t="n">
-        <v>1283.830373604052</v>
+        <v>1047.499759251577</v>
       </c>
       <c r="E38" t="n">
-        <v>966.8968096698331</v>
+        <v>730.5661953173581</v>
       </c>
       <c r="F38" t="n">
-        <v>627.9687133798323</v>
+        <v>388.4349791917758</v>
       </c>
       <c r="G38" t="n">
-        <v>280.6959222332116</v>
+        <v>41.16218804515507</v>
       </c>
       <c r="H38" t="n">
         <v>41.16218804515507</v>
@@ -7201,25 +7201,25 @@
         <v>2058.109402257754</v>
       </c>
       <c r="S38" t="n">
-        <v>2058.109402257754</v>
+        <v>1992.63193417092</v>
       </c>
       <c r="T38" t="n">
-        <v>2058.109402257754</v>
+        <v>1850.890482901592</v>
       </c>
       <c r="U38" t="n">
-        <v>1873.349211823164</v>
+        <v>1850.890482901592</v>
       </c>
       <c r="V38" t="n">
-        <v>1873.349211823164</v>
+        <v>1850.890482901592</v>
       </c>
       <c r="W38" t="n">
-        <v>1873.349211823164</v>
+        <v>1850.890482901592</v>
       </c>
       <c r="X38" t="n">
-        <v>1873.349211823164</v>
+        <v>1686.52955396346</v>
       </c>
       <c r="Y38" t="n">
-        <v>1873.349211823164</v>
+        <v>1365.244910651674</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>600.6609762162867</v>
+        <v>600.6609762162863</v>
       </c>
       <c r="C39" t="n">
-        <v>426.2079469351597</v>
+        <v>495.0626355991845</v>
       </c>
       <c r="D39" t="n">
-        <v>304.3967226256653</v>
+        <v>414.9829146019586</v>
       </c>
       <c r="E39" t="n">
-        <v>214.0139562842351</v>
+        <v>282.8686449482605</v>
       </c>
       <c r="F39" t="n">
-        <v>136.3340869751454</v>
+        <v>136.3340869751455</v>
       </c>
       <c r="G39" t="n">
-        <v>68.26118484047029</v>
+        <v>68.26118484047031</v>
       </c>
       <c r="H39" t="n">
         <v>41.16218804515507</v>
@@ -7289,16 +7289,16 @@
         <v>1329.604133846659</v>
       </c>
       <c r="V39" t="n">
-        <v>1163.306714278942</v>
+        <v>1163.306714278941</v>
       </c>
       <c r="W39" t="n">
-        <v>977.9240462147656</v>
+        <v>977.9240462147651</v>
       </c>
       <c r="X39" t="n">
-        <v>838.927234673258</v>
+        <v>838.9272346732575</v>
       </c>
       <c r="Y39" t="n">
-        <v>700.0216245723294</v>
+        <v>700.021624572329</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.1937216294441</v>
+        <v>603.1937216294443</v>
       </c>
       <c r="C40" t="n">
-        <v>503.1122273655625</v>
+        <v>503.1122273655627</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8502766172521</v>
+        <v>421.8502766172522</v>
       </c>
       <c r="E40" t="n">
-        <v>342.7918716988843</v>
+        <v>342.7918716988844</v>
       </c>
       <c r="F40" t="n">
-        <v>264.7566128649993</v>
+        <v>264.7566128649994</v>
       </c>
       <c r="G40" t="n">
-        <v>165.4352149209154</v>
+        <v>165.4352149209155</v>
       </c>
       <c r="H40" t="n">
-        <v>83.86509422819896</v>
+        <v>83.86509422819898</v>
       </c>
       <c r="I40" t="n">
         <v>41.16218804515507</v>
@@ -7338,28 +7338,28 @@
         <v>338.5591390779302</v>
       </c>
       <c r="L40" t="n">
-        <v>653.6442036332154</v>
+        <v>653.6442036332153</v>
       </c>
       <c r="M40" t="n">
-        <v>992.5779069580706</v>
+        <v>992.577906958071</v>
       </c>
       <c r="N40" t="n">
         <v>1330.491770901512</v>
       </c>
       <c r="O40" t="n">
-        <v>1631.745261750395</v>
+        <v>1631.745261750396</v>
       </c>
       <c r="P40" t="n">
         <v>1875.738833199191</v>
       </c>
       <c r="Q40" t="n">
-        <v>1981.993978888108</v>
+        <v>1981.993978888109</v>
       </c>
       <c r="R40" t="n">
-        <v>1939.739170172678</v>
+        <v>1939.739170172679</v>
       </c>
       <c r="S40" t="n">
-        <v>1808.660518144606</v>
+        <v>1808.660518144607</v>
       </c>
       <c r="T40" t="n">
         <v>1653.72652326971</v>
@@ -7368,16 +7368,16 @@
         <v>1433.452531423952</v>
       </c>
       <c r="V40" t="n">
-        <v>1247.62273188209</v>
+        <v>1247.622731882091</v>
       </c>
       <c r="W40" t="n">
-        <v>1027.060250509155</v>
+        <v>1027.060250509156</v>
       </c>
       <c r="X40" t="n">
-        <v>867.9253882751632</v>
+        <v>867.9253882751635</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.9874977956584</v>
+        <v>715.9874977956588</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1300.669213137942</v>
+        <v>1123.414890089917</v>
       </c>
       <c r="C41" t="n">
-        <v>1300.669213137942</v>
+        <v>1123.414890089917</v>
       </c>
       <c r="D41" t="n">
-        <v>976.7789749186057</v>
+        <v>799.5246518705808</v>
       </c>
       <c r="E41" t="n">
-        <v>696.9271699330551</v>
+        <v>799.5246518705808</v>
       </c>
       <c r="F41" t="n">
-        <v>696.9271699330551</v>
+        <v>422.9142074683872</v>
       </c>
       <c r="G41" t="n">
-        <v>315.175150509823</v>
+        <v>41.16218804515507</v>
       </c>
       <c r="H41" t="n">
         <v>41.16218804515507</v>
@@ -7411,13 +7411,13 @@
         <v>41.16218804515507</v>
       </c>
       <c r="J41" t="n">
-        <v>142.2789278009788</v>
+        <v>142.2789278009787</v>
       </c>
       <c r="K41" t="n">
         <v>344.5652271302099</v>
       </c>
       <c r="L41" t="n">
-        <v>632.4210306842284</v>
+        <v>632.4210306842288</v>
       </c>
       <c r="M41" t="n">
         <v>984.3855134576365</v>
@@ -7429,7 +7429,7 @@
         <v>1675.40823739094</v>
       </c>
       <c r="P41" t="n">
-        <v>1921.487140686695</v>
+        <v>1921.487140686696</v>
       </c>
       <c r="Q41" t="n">
         <v>2058.109402257754</v>
@@ -7444,19 +7444,19 @@
         <v>1958.152705894309</v>
       </c>
       <c r="U41" t="n">
-        <v>1958.152705894309</v>
+        <v>1738.913287183108</v>
       </c>
       <c r="V41" t="n">
-        <v>1958.152705894309</v>
+        <v>1442.225860226951</v>
       </c>
       <c r="W41" t="n">
-        <v>1639.759511011608</v>
+        <v>1123.83266534425</v>
       </c>
       <c r="X41" t="n">
-        <v>1300.669213137942</v>
+        <v>1123.414890089917</v>
       </c>
       <c r="Y41" t="n">
-        <v>1300.669213137942</v>
+        <v>1123.414890089917</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>696.9501538996611</v>
+        <v>696.9501538996612</v>
       </c>
       <c r="C42" t="n">
-        <v>556.8725850059481</v>
+        <v>556.8725850059482</v>
       </c>
       <c r="D42" t="n">
-        <v>442.3136357321108</v>
+        <v>442.3136357321109</v>
       </c>
       <c r="E42" t="n">
-        <v>317.4516411140692</v>
+        <v>317.4516411140693</v>
       </c>
       <c r="F42" t="n">
-        <v>205.2925435283681</v>
+        <v>205.2925435283682</v>
       </c>
       <c r="G42" t="n">
         <v>102.7404131170817</v>
@@ -7487,34 +7487,34 @@
         <v>41.16218804515507</v>
       </c>
       <c r="I42" t="n">
-        <v>41.16218804515507</v>
+        <v>47.20046928616921</v>
       </c>
       <c r="J42" t="n">
-        <v>218.8520613840492</v>
+        <v>122.2984485344336</v>
       </c>
       <c r="K42" t="n">
-        <v>401.4687331824378</v>
+        <v>304.9151203328221</v>
       </c>
       <c r="L42" t="n">
-        <v>681.7310846759544</v>
+        <v>585.1774718263388</v>
       </c>
       <c r="M42" t="n">
-        <v>1022.516025122992</v>
+        <v>925.9624122733761</v>
       </c>
       <c r="N42" t="n">
-        <v>1385.837463014458</v>
+        <v>1289.283850164842</v>
       </c>
       <c r="O42" t="n">
-        <v>1698.856153070839</v>
+        <v>1602.302540221223</v>
       </c>
       <c r="P42" t="n">
-        <v>1937.399260801021</v>
+        <v>1937.399260801022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.109402257753</v>
+        <v>2058.109402257754</v>
       </c>
       <c r="R42" t="n">
-        <v>2058.109402257753</v>
+        <v>2058.109402257754</v>
       </c>
       <c r="S42" t="n">
         <v>1952.561810245516</v>
@@ -7523,7 +7523,7 @@
         <v>1792.018976932795</v>
       </c>
       <c r="U42" t="n">
-        <v>1598.28945291309</v>
+        <v>1598.289452913091</v>
       </c>
       <c r="V42" t="n">
         <v>1397.512805068762</v>
@@ -7535,7 +7535,7 @@
         <v>1004.174868909855</v>
       </c>
       <c r="Y42" t="n">
-        <v>830.7900305323152</v>
+        <v>830.7900305323153</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>291.4640896105698</v>
+        <v>767.3661851060687</v>
       </c>
       <c r="C43" t="n">
-        <v>156.9033670700768</v>
+        <v>632.8054625655757</v>
       </c>
       <c r="D43" t="n">
-        <v>41.16218804515507</v>
+        <v>517.0642835406538</v>
       </c>
       <c r="E43" t="n">
-        <v>41.16218804515507</v>
+        <v>403.5266503456746</v>
       </c>
       <c r="F43" t="n">
-        <v>41.16218804515507</v>
+        <v>291.0121632351782</v>
       </c>
       <c r="G43" t="n">
-        <v>41.16218804515507</v>
+        <v>157.2115370144829</v>
       </c>
       <c r="H43" t="n">
         <v>41.16218804515507</v>
@@ -7569,16 +7569,16 @@
         <v>41.16218804515507</v>
       </c>
       <c r="J43" t="n">
-        <v>87.18326503018355</v>
+        <v>87.18326503018352</v>
       </c>
       <c r="K43" t="n">
-        <v>270.9729558101167</v>
+        <v>270.9729558101166</v>
       </c>
       <c r="L43" t="n">
-        <v>552.264928731495</v>
+        <v>552.2649287314949</v>
       </c>
       <c r="M43" t="n">
-        <v>857.4055404224441</v>
+        <v>857.4055404224439</v>
       </c>
       <c r="N43" t="n">
         <v>1161.526312731978</v>
@@ -7587,34 +7587,34 @@
         <v>1428.986711946955</v>
       </c>
       <c r="P43" t="n">
-        <v>1639.187191761844</v>
+        <v>1639.187191761843</v>
       </c>
       <c r="Q43" t="n">
         <v>1711.649245816855</v>
       </c>
       <c r="R43" t="n">
-        <v>1634.915208824813</v>
+        <v>1711.649245816855</v>
       </c>
       <c r="S43" t="n">
-        <v>1469.35732852013</v>
+        <v>1546.091365512171</v>
       </c>
       <c r="T43" t="n">
-        <v>1279.944105368622</v>
+        <v>1546.091365512171</v>
       </c>
       <c r="U43" t="n">
-        <v>1025.190885246253</v>
+        <v>1291.338145389801</v>
       </c>
       <c r="V43" t="n">
-        <v>1025.190885246253</v>
+        <v>1291.338145389801</v>
       </c>
       <c r="W43" t="n">
-        <v>770.1491755967063</v>
+        <v>1036.296435740255</v>
       </c>
       <c r="X43" t="n">
-        <v>576.535085086103</v>
+        <v>1036.296435740255</v>
       </c>
       <c r="Y43" t="n">
-        <v>390.1179663299869</v>
+        <v>914.6391895488944</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.16218804515507</v>
+        <v>1562.692607637169</v>
       </c>
       <c r="C44" t="n">
-        <v>41.16218804515507</v>
+        <v>1562.692607637169</v>
       </c>
       <c r="D44" t="n">
-        <v>41.16218804515507</v>
+        <v>1424.950406546079</v>
       </c>
       <c r="E44" t="n">
-        <v>41.16218804515507</v>
+        <v>1073.537614335249</v>
       </c>
       <c r="F44" t="n">
-        <v>41.16218804515507</v>
+        <v>696.9271699330551</v>
       </c>
       <c r="G44" t="n">
-        <v>41.16218804515507</v>
+        <v>315.175150509823</v>
       </c>
       <c r="H44" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="I44" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J44" t="n">
-        <v>142.2789278009787</v>
+        <v>142.2789278009788</v>
       </c>
       <c r="K44" t="n">
         <v>344.5652271302099</v>
       </c>
       <c r="L44" t="n">
-        <v>632.4210306842288</v>
+        <v>632.4210306842291</v>
       </c>
       <c r="M44" t="n">
-        <v>984.3855134576365</v>
+        <v>984.3855134576372</v>
       </c>
       <c r="N44" t="n">
-        <v>1346.658957908689</v>
+        <v>1346.65895790869</v>
       </c>
       <c r="O44" t="n">
         <v>1675.40823739094</v>
@@ -7678,22 +7678,22 @@
         <v>1958.152705894309</v>
       </c>
       <c r="T44" t="n">
-        <v>1781.932026348369</v>
+        <v>1781.93202634837</v>
       </c>
       <c r="U44" t="n">
-        <v>1562.692607637168</v>
+        <v>1562.692607637169</v>
       </c>
       <c r="V44" t="n">
-        <v>1266.005180681012</v>
+        <v>1562.692607637169</v>
       </c>
       <c r="W44" t="n">
-        <v>947.6119857983113</v>
+        <v>1562.692607637169</v>
       </c>
       <c r="X44" t="n">
-        <v>608.5216879246453</v>
+        <v>1562.692607637169</v>
       </c>
       <c r="Y44" t="n">
-        <v>252.7578163362476</v>
+        <v>1562.692607637169</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>696.9501538996612</v>
+        <v>696.9501538996609</v>
       </c>
       <c r="C45" t="n">
-        <v>556.8725850059482</v>
+        <v>556.8725850059478</v>
       </c>
       <c r="D45" t="n">
-        <v>442.3136357321109</v>
+        <v>442.3136357321105</v>
       </c>
       <c r="E45" t="n">
-        <v>317.4516411140694</v>
+        <v>317.4516411140689</v>
       </c>
       <c r="F45" t="n">
-        <v>205.2925435283683</v>
+        <v>205.2925435283678</v>
       </c>
       <c r="G45" t="n">
         <v>102.7404131170817</v>
       </c>
       <c r="H45" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="I45" t="n">
         <v>47.20046928616922</v>
@@ -7730,25 +7730,25 @@
         <v>122.2984485344336</v>
       </c>
       <c r="K45" t="n">
-        <v>304.9151203328222</v>
+        <v>304.9151203328221</v>
       </c>
       <c r="L45" t="n">
-        <v>585.1774718263389</v>
+        <v>585.1774718263388</v>
       </c>
       <c r="M45" t="n">
-        <v>925.9624122733762</v>
+        <v>925.9624122733761</v>
       </c>
       <c r="N45" t="n">
         <v>1289.283850164842</v>
       </c>
       <c r="O45" t="n">
-        <v>1602.302540221224</v>
+        <v>1602.302540221223</v>
       </c>
       <c r="P45" t="n">
-        <v>1893.133381676891</v>
+        <v>1840.845647951405</v>
       </c>
       <c r="Q45" t="n">
-        <v>2013.843523133623</v>
+        <v>2058.109402257754</v>
       </c>
       <c r="R45" t="n">
         <v>2058.109402257754</v>
@@ -7757,10 +7757,10 @@
         <v>1952.561810245516</v>
       </c>
       <c r="T45" t="n">
-        <v>1792.018976932795</v>
+        <v>1792.018976932796</v>
       </c>
       <c r="U45" t="n">
-        <v>1598.28945291309</v>
+        <v>1598.289452913091</v>
       </c>
       <c r="V45" t="n">
         <v>1397.512805068762</v>
@@ -7772,7 +7772,7 @@
         <v>1004.174868909855</v>
       </c>
       <c r="Y45" t="n">
-        <v>830.7900305323153</v>
+        <v>830.790030532315</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>549.8401477782334</v>
+        <v>732.0338324552275</v>
       </c>
       <c r="C46" t="n">
-        <v>499.0048363448802</v>
+        <v>597.4731099147346</v>
       </c>
       <c r="D46" t="n">
-        <v>383.2636573199584</v>
+        <v>481.7319308898127</v>
       </c>
       <c r="E46" t="n">
-        <v>269.7260241249793</v>
+        <v>368.1942976948335</v>
       </c>
       <c r="F46" t="n">
-        <v>157.2115370144829</v>
+        <v>368.1942976948335</v>
       </c>
       <c r="G46" t="n">
-        <v>157.2115370144829</v>
+        <v>234.3936714741382</v>
       </c>
       <c r="H46" t="n">
-        <v>41.16218804515507</v>
+        <v>118.3443225048104</v>
       </c>
       <c r="I46" t="n">
-        <v>41.16218804515507</v>
+        <v>41.16218804515508</v>
       </c>
       <c r="J46" t="n">
         <v>87.18326503018355</v>
@@ -7824,7 +7824,7 @@
         <v>1428.986711946955</v>
       </c>
       <c r="P46" t="n">
-        <v>1639.187191761844</v>
+        <v>1639.187191761843</v>
       </c>
       <c r="Q46" t="n">
         <v>1711.649245816855</v>
@@ -7836,22 +7836,22 @@
         <v>1469.35732852013</v>
       </c>
       <c r="T46" t="n">
-        <v>1279.944105368622</v>
+        <v>1469.35732852013</v>
       </c>
       <c r="U46" t="n">
-        <v>1025.190885246253</v>
+        <v>1469.35732852013</v>
       </c>
       <c r="V46" t="n">
-        <v>804.88185742778</v>
+        <v>1249.048300701657</v>
       </c>
       <c r="W46" t="n">
-        <v>549.8401477782334</v>
+        <v>994.00659105211</v>
       </c>
       <c r="X46" t="n">
-        <v>549.8401477782334</v>
+        <v>800.3925005415066</v>
       </c>
       <c r="Y46" t="n">
-        <v>549.8401477782334</v>
+        <v>800.3925005415066</v>
       </c>
     </row>
   </sheetData>
@@ -9564,7 +9564,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415543</v>
       </c>
       <c r="M22" t="n">
         <v>178.5096609094456</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272329</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.923742957457115</v>
+        <v>3.923742957457101</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>56.52317004435763</v>
       </c>
       <c r="K27" t="n">
-        <v>101.3389094709572</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7059303847220235</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.923742957457115</v>
+        <v>3.923742957457101</v>
       </c>
       <c r="J30" t="n">
-        <v>101.3389094709572</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>101.3389094709564</v>
       </c>
       <c r="R30" t="n">
-        <v>0.7059303847220235</v>
+        <v>0.7059303847220093</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775073</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.509660909445</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
         <v>171.8177168444618</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>4.026473167762539</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>103.628175849121</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>97.52890186829944</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.8086605950274475</v>
+        <v>0.8086605950274759</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>52.81589265200566</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>97.52890186829981</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0.8086605950274759</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>314.5676998860955</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>286.5168998432979</v>
+        <v>231.6638385218228</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>313.7642282948767</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>338.7099039643264</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>237.1383968461759</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13.67807848670782</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.82269340596532</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>140.3240367566345</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>182.9125885302438</v>
       </c>
       <c r="V11" t="n">
-        <v>259.5861166927498</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>281.0748269400279</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>244.485737570062</v>
+        <v>301.564958901084</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>314.5676998860955</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>286.5168998432979</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>313.7642282948767</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>338.7099039643264</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>343.8000632351545</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>237.1383968461759</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>64.82269340596534</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>140.3240367566345</v>
       </c>
       <c r="U14" t="n">
-        <v>182.9125885302438</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>232.7122277235939</v>
+        <v>258.3019740820249</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>301.564958901084</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>338.7099039643264</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>191.7050008042829</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>237.1383968461759</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>13.67807848670785</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>140.3240367566345</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>182.9125885302438</v>
+        <v>20.19526888149289</v>
       </c>
       <c r="V17" t="n">
         <v>259.5861166927498</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>281.0748269400279</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>301.564958901084</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>314.5676998860955</v>
       </c>
       <c r="C20" t="n">
-        <v>297.1067499936225</v>
+        <v>157.1732038805678</v>
       </c>
       <c r="D20" t="n">
-        <v>286.5168998432979</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7642282948767</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>237.1383968461759</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.183946013352035</v>
+        <v>64.82269340596535</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>259.5861166927498</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>281.0748269400279</v>
       </c>
       <c r="X20" t="n">
         <v>301.564958901084</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>318.0717968786685</v>
       </c>
     </row>
     <row r="21">
@@ -24214,7 +24214,7 @@
         <v>286.5168998432979</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>313.7642282948767</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>237.1383968461759</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>13.67807848670785</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>140.3240367566345</v>
       </c>
       <c r="U23" t="n">
-        <v>33.87334736820083</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5861166927498</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0748269400279</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>301.564958901084</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>106.7679474627592</v>
       </c>
     </row>
     <row r="24">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>331.1384557771623</v>
       </c>
       <c r="D26" t="n">
         <v>320.5486056268377</v>
       </c>
       <c r="E26" t="n">
-        <v>347.7959340784165</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>372.7416097478662</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>377.8317690186943</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>271.1701026297158</v>
       </c>
       <c r="I26" t="n">
-        <v>47.70978427024767</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>174.3557425401743</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>216.9442943137836</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>293.6178224762896</v>
       </c>
       <c r="W26" t="n">
-        <v>295.1833354263036</v>
+        <v>247.4583573120836</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>352.1035026622083</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.6975441880921</v>
+        <v>145.697544188092</v>
       </c>
       <c r="C28" t="n">
-        <v>133.1123851047826</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>114.4810370243671</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>112.2995266527239</v>
@@ -24615,13 +24615,13 @@
         <v>111.286612029086</v>
       </c>
       <c r="G28" t="n">
-        <v>10.01576888691449</v>
+        <v>14.53589346854186</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>76.30758290475326</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>163.7995712913311</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>187.4163607096871</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.4502173582495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,10 +24688,10 @@
         <v>320.5486056268377</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>347.7959340784165</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>372.7416097478662</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>271.1701026297158</v>
       </c>
       <c r="I29" t="n">
-        <v>47.70978427024767</v>
+        <v>47.70978427024764</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>98.85439918950514</v>
+        <v>21.70219747153043</v>
       </c>
       <c r="T29" t="n">
-        <v>174.3557425401743</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>216.9442943137836</v>
       </c>
       <c r="V29" t="n">
-        <v>293.6178224762897</v>
+        <v>293.6178224762896</v>
       </c>
       <c r="W29" t="n">
         <v>315.1065327235677</v>
       </c>
       <c r="X29" t="n">
-        <v>335.5966646846238</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>133.4329348835105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>20.70818038892277</v>
       </c>
       <c r="C31" t="n">
         <v>133.1123851047826</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>112.2995266527239</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>63.39653309197501</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>132.3598897481829</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>76.30758290475327</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>75.86396641181545</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>187.4163607096871</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>252.1029577108403</v>
       </c>
       <c r="V31" t="n">
-        <v>218.0032073299828</v>
+        <v>218.0032073299827</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>314.5676998860955</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>297.1067499936225</v>
       </c>
       <c r="D32" t="n">
-        <v>173.5244956914992</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>119.6525705796948</v>
       </c>
       <c r="G32" t="n">
-        <v>343.8000632351545</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>237.1383968461759</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>13.67807848670785</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.82269340596532</v>
+        <v>64.82269340596535</v>
       </c>
       <c r="T32" t="n">
-        <v>140.3240367566345</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>182.9125885302438</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>259.5861166927498</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>281.0748269400279</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>301.564958901084</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>318.0717968786685</v>
       </c>
     </row>
     <row r="33">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>218.5349583720314</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>297.1067499936225</v>
       </c>
       <c r="D35" t="n">
         <v>286.5168998432979</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>343.8000632351545</v>
       </c>
       <c r="H35" t="n">
         <v>237.1383968461759</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.82269340596532</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>140.3240367566345</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9125885302438</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>259.5861166927498</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>211.7963362152149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.5676998860955</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>297.1067499936225</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>286.5168998432979</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>3.171088637225523</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>237.1383968461759</v>
       </c>
       <c r="I38" t="n">
         <v>13.67807848670785</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.82269340596532</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3240367566345</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>182.9125885302438</v>
       </c>
       <c r="V38" t="n">
         <v>259.5861166927498</v>
@@ -25456,10 +25456,10 @@
         <v>281.0748269400279</v>
       </c>
       <c r="X38" t="n">
-        <v>301.564958901084</v>
+        <v>138.8476392523331</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.0717968786685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25630,25 +25630,25 @@
         <v>348.7021358799408</v>
       </c>
       <c r="C41" t="n">
-        <v>331.2411859874677</v>
+        <v>331.2411859874678</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>70.84537735302689</v>
+        <v>347.898664288722</v>
       </c>
       <c r="F41" t="n">
-        <v>372.8443399581716</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.2728328400212</v>
       </c>
       <c r="I41" t="n">
-        <v>47.81251448055309</v>
+        <v>47.81251448055312</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>174.4584727504798</v>
       </c>
       <c r="U41" t="n">
-        <v>217.047024524089</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>293.7205526865951</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>335.2857973931393</v>
       </c>
       <c r="Y41" t="n">
-        <v>352.2062328725137</v>
+        <v>352.2062328725138</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.13293644617455</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>112.4022568630294</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>111.3893422393914</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.4626199584883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.8888554796346</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.4103131150587</v>
+        <v>76.41031311505873</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>75.96669662212091</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>187.5190909199926</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>191.6779496054974</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>64.11227383910821</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>139.2224638717592</v>
+        <v>348.7021358799408</v>
       </c>
       <c r="C44" t="n">
-        <v>331.2411859874677</v>
+        <v>331.2411859874678</v>
       </c>
       <c r="D44" t="n">
-        <v>320.6513358371432</v>
+        <v>184.2865567569643</v>
       </c>
       <c r="E44" t="n">
-        <v>347.898664288722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>372.8443399581716</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>377.9344992289998</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.2728328400212</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>47.81251448055309</v>
+        <v>47.81251448055312</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>293.7205526865951</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>315.2092629338732</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>335.6993948949292</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>352.2062328725138</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.8002743983975</v>
+        <v>78.12519299298123</v>
       </c>
       <c r="C46" t="n">
-        <v>82.88815699606843</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>111.3893422393915</v>
       </c>
       <c r="G46" t="n">
-        <v>132.4626199584883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.4103131150587</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>187.5190909199926</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>252.2056879211458</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>191.6779496054973</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>184.552947568555</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>579955.2899865699</v>
+        <v>579955.2899865698</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>579955.2899865699</v>
+        <v>579955.2899865698</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>532951.2790468426</v>
+        <v>532951.2790468425</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>579955.2899865697</v>
+        <v>579955.2899865698</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>579955.2899865697</v>
+        <v>579955.2899865698</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>579955.2899865697</v>
+        <v>579955.2899865698</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>532862.4125186577</v>
+        <v>532862.4125186579</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132606</v>
+        <v>757830.6133132603</v>
       </c>
       <c r="C2" t="n">
         <v>757830.6133132604</v>
@@ -26325,37 +26325,37 @@
         <v>634523.7398568981</v>
       </c>
       <c r="F2" t="n">
-        <v>634523.7398568982</v>
+        <v>634523.739856898</v>
       </c>
       <c r="G2" t="n">
+        <v>634523.7398568965</v>
+      </c>
+      <c r="H2" t="n">
         <v>634523.7398568966</v>
       </c>
-      <c r="H2" t="n">
-        <v>634523.7398568965</v>
-      </c>
       <c r="I2" t="n">
-        <v>634523.7398568965</v>
+        <v>634523.7398568963</v>
       </c>
       <c r="J2" t="n">
         <v>578925.6057786443</v>
       </c>
       <c r="K2" t="n">
-        <v>578925.6057786443</v>
+        <v>578925.6057786444</v>
       </c>
       <c r="L2" t="n">
-        <v>634523.7398568967</v>
+        <v>634523.7398568966</v>
       </c>
       <c r="M2" t="n">
         <v>634523.7398568963</v>
       </c>
       <c r="N2" t="n">
-        <v>634523.7398568968</v>
+        <v>634523.7398568966</v>
       </c>
       <c r="O2" t="n">
+        <v>578757.7738150394</v>
+      </c>
+      <c r="P2" t="n">
         <v>578757.7738150397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>578757.7738150394</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>27225.36462683186</v>
+        <v>27225.36462683183</v>
       </c>
       <c r="M3" t="n">
         <v>128222.2738700604</v>
@@ -26426,7 +26426,7 @@
         <v>385783.8405692248</v>
       </c>
       <c r="E4" t="n">
-        <v>105795.9378239844</v>
+        <v>105795.9378239845</v>
       </c>
       <c r="F4" t="n">
         <v>105795.9378239845</v>
@@ -26441,10 +26441,10 @@
         <v>105795.9378239845</v>
       </c>
       <c r="J4" t="n">
-        <v>71628.48903471266</v>
+        <v>71628.48903471268</v>
       </c>
       <c r="K4" t="n">
-        <v>71628.48903471266</v>
+        <v>71628.48903471268</v>
       </c>
       <c r="L4" t="n">
         <v>105795.9378239845</v>
@@ -26456,10 +26456,10 @@
         <v>105795.9378239845</v>
       </c>
       <c r="O4" t="n">
-        <v>71525.92322946219</v>
+        <v>71525.92322946218</v>
       </c>
       <c r="P4" t="n">
-        <v>71525.92322946221</v>
+        <v>71525.92322946218</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>55107.10391585061</v>
+        <v>55107.10391585062</v>
       </c>
       <c r="F5" t="n">
-        <v>55107.10391585062</v>
+        <v>55107.10391585059</v>
       </c>
       <c r="G5" t="n">
-        <v>55107.1039158506</v>
+        <v>55107.10391585058</v>
       </c>
       <c r="H5" t="n">
         <v>55107.10391585058</v>
       </c>
       <c r="I5" t="n">
-        <v>55107.10391585058</v>
+        <v>55107.10391585059</v>
       </c>
       <c r="J5" t="n">
-        <v>52246.09244233417</v>
+        <v>52246.09244233418</v>
       </c>
       <c r="K5" t="n">
-        <v>52246.09244233417</v>
+        <v>52246.09244233418</v>
       </c>
       <c r="L5" t="n">
-        <v>55107.10391585058</v>
+        <v>55107.10391585059</v>
       </c>
       <c r="M5" t="n">
         <v>55107.10391585058</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256542.9176028483</v>
+        <v>256582.6398036609</v>
       </c>
       <c r="C6" t="n">
-        <v>256542.917602848</v>
+        <v>256582.639803661</v>
       </c>
       <c r="D6" t="n">
-        <v>132259.2936941629</v>
+        <v>132297.3254787014</v>
       </c>
       <c r="E6" t="n">
-        <v>-216086.859859295</v>
+        <v>-213047.7812771111</v>
       </c>
       <c r="F6" t="n">
-        <v>470243.9441368587</v>
+        <v>473283.0227190427</v>
       </c>
       <c r="G6" t="n">
-        <v>470243.9441368571</v>
+        <v>473283.0227190413</v>
       </c>
       <c r="H6" t="n">
-        <v>470243.9441368571</v>
+        <v>473283.0227190412</v>
       </c>
       <c r="I6" t="n">
-        <v>470243.944136857</v>
+        <v>473283.0227190409</v>
       </c>
       <c r="J6" t="n">
-        <v>422864.0692539316</v>
+        <v>427255.5348812623</v>
       </c>
       <c r="K6" t="n">
-        <v>450171.6180490078</v>
+        <v>454563.0836763387</v>
       </c>
       <c r="L6" t="n">
-        <v>443018.5795100254</v>
+        <v>446057.6580922093</v>
       </c>
       <c r="M6" t="n">
-        <v>342021.6702667965</v>
+        <v>345060.7488489805</v>
       </c>
       <c r="N6" t="n">
-        <v>470243.9441368573</v>
+        <v>473283.0227190413</v>
       </c>
       <c r="O6" t="n">
-        <v>450110.4523176875</v>
+        <v>454506.0003441327</v>
       </c>
       <c r="P6" t="n">
-        <v>450110.4523176872</v>
+        <v>454506.0003441329</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>68.16614177738505</v>
       </c>
       <c r="J2" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="K2" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="L2" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="M2" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="N2" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="O2" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="P2" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
     </row>
     <row r="3">
@@ -26746,13 +26746,13 @@
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>829.9624600206307</v>
+        <v>829.9624600206306</v>
       </c>
       <c r="F3" t="n">
         <v>829.9624600206306</v>
       </c>
       <c r="G3" t="n">
-        <v>829.9624600206306</v>
+        <v>829.9624600206304</v>
       </c>
       <c r="H3" t="n">
         <v>829.9624600206304</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>514.5273505644387</v>
+        <v>514.5273505644388</v>
       </c>
       <c r="F4" t="n">
-        <v>514.5273505644388</v>
+        <v>514.5273505644385</v>
       </c>
       <c r="G4" t="n">
-        <v>514.5273505644386</v>
+        <v>514.5273505644384</v>
       </c>
       <c r="H4" t="n">
         <v>514.5273505644384</v>
       </c>
       <c r="I4" t="n">
-        <v>514.5273505644384</v>
+        <v>514.5273505644385</v>
       </c>
       <c r="J4" t="n">
-        <v>514.5273505644384</v>
+        <v>514.5273505644385</v>
       </c>
       <c r="K4" t="n">
-        <v>514.5273505644384</v>
+        <v>514.5273505644385</v>
       </c>
       <c r="L4" t="n">
-        <v>514.5273505644384</v>
+        <v>514.5273505644385</v>
       </c>
       <c r="M4" t="n">
         <v>514.5273505644384</v>
@@ -26831,7 +26831,7 @@
         <v>514.5273505644384</v>
       </c>
       <c r="P4" t="n">
-        <v>514.5273505644384</v>
+        <v>514.5273505644385</v>
       </c>
     </row>
   </sheetData>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384525</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>34.03170578353982</v>
+        <v>34.03170578353979</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>595.1824218946365</v>
+        <v>595.1824218946364</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>514.5273505644386</v>
+        <v>514.5273505644387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384525</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>5.997077997967494</v>
+        <v>5.997077997967523</v>
       </c>
       <c r="S11" t="n">
         <v>68.16614177738505</v>
@@ -28171,10 +28171,10 @@
         <v>68.16614177738505</v>
       </c>
       <c r="C12" t="n">
-        <v>26.85195349823846</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="E12" t="n">
         <v>68.16614177738505</v>
@@ -28183,13 +28183,13 @@
         <v>68.16614177738505</v>
       </c>
       <c r="G12" t="n">
-        <v>68.16614177738505</v>
+        <v>26.85195349823884</v>
       </c>
       <c r="H12" t="n">
         <v>68.16614177738505</v>
       </c>
       <c r="I12" t="n">
-        <v>38.05817895130234</v>
+        <v>38.05817895130235</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28216,7 +28216,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.84036637856723</v>
+        <v>34.84036637856724</v>
       </c>
       <c r="S12" t="n">
         <v>68.16614177738505</v>
@@ -28228,7 +28228,7 @@
         <v>68.16614177738505</v>
       </c>
       <c r="V12" t="n">
-        <v>68.16614177738505</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>68.16614177738505</v>
@@ -28414,16 +28414,16 @@
         <v>68.16614177738505</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="F15" t="n">
-        <v>26.85195349823898</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="G15" t="n">
         <v>68.16614177738505</v>
       </c>
       <c r="H15" t="n">
-        <v>68.16614177738505</v>
+        <v>26.85195349823927</v>
       </c>
       <c r="I15" t="n">
         <v>38.05817895130235</v>
@@ -28456,7 +28456,7 @@
         <v>34.84036637856724</v>
       </c>
       <c r="S15" t="n">
-        <v>68.16614177738505</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>68.16614177738505</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>5.997077997967523</v>
+        <v>5.99707799796758</v>
       </c>
       <c r="S17" t="n">
         <v>68.16614177738505</v>
@@ -28651,10 +28651,10 @@
         <v>68.16614177738505</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>26.85195349823982</v>
       </c>
       <c r="F18" t="n">
-        <v>26.85195349823941</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>68.16614177738505</v>
@@ -28663,7 +28663,7 @@
         <v>68.16614177738505</v>
       </c>
       <c r="I18" t="n">
-        <v>38.05817895130235</v>
+        <v>38.05817895130236</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28690,7 +28690,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.84036637856724</v>
+        <v>34.84036637856727</v>
       </c>
       <c r="S18" t="n">
         <v>68.16614177738505</v>
@@ -28888,10 +28888,10 @@
         <v>68.16614177738505</v>
       </c>
       <c r="E21" t="n">
-        <v>26.85195349823982</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="G21" t="n">
         <v>68.16614177738505</v>
@@ -28945,10 +28945,10 @@
         <v>68.16614177738505</v>
       </c>
       <c r="X21" t="n">
-        <v>68.16614177738505</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>68.16614177738505</v>
+        <v>26.85195349823982</v>
       </c>
     </row>
     <row r="22">
@@ -29119,7 +29119,7 @@
         <v>68.16614177738505</v>
       </c>
       <c r="C24" t="n">
-        <v>68.16614177738505</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>68.16614177738505</v>
@@ -29176,13 +29176,13 @@
         <v>68.16614177738505</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="W24" t="n">
-        <v>26.85195349823971</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="X24" t="n">
-        <v>68.16614177738505</v>
+        <v>26.85195349823977</v>
       </c>
       <c r="Y24" t="n">
         <v>68.16614177738505</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="C26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="D26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="E26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="F26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="G26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="H26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="I26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>5.99707799796758</v>
       </c>
       <c r="S26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="T26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="U26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="V26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="W26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="X26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="Y26" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="C27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="D27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="E27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="F27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="G27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="H27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="I27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="J27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="K27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="L27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="M27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="N27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="O27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="P27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="R27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="S27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="T27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="U27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="V27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="W27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="X27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="Y27" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="C28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="D28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="E28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="F28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="G28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="H28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="I28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="J28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="K28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="L28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="M28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="N28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="O28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="P28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="Q28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="R28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="S28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="T28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="U28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="V28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="W28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="X28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="C29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="D29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="E29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="F29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="G29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="H29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="I29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>5.99707799796758</v>
       </c>
       <c r="S29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="T29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="U29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="V29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="W29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="X29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="Y29" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="C30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="D30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="E30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="F30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="G30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="H30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="I30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="J30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="K30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="L30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="M30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="N30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="O30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="P30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="R30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="S30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="T30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="U30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="V30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="W30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="X30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="Y30" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="C31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="D31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="E31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="F31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="G31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="H31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="I31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="J31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="K31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="L31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="M31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="N31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="O31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="P31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="Q31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="R31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="S31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="T31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="U31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="V31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="W31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="X31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.13443599384524</v>
+        <v>34.13443599384526</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="C32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="D32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="E32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="F32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="G32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="H32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="I32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>5.99707799796758</v>
       </c>
       <c r="S32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="T32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="U32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="V32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="W32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="X32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Y32" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="C33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="D33" t="n">
-        <v>68.16614177738506</v>
+        <v>26.85195349823978</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="F33" t="n">
-        <v>26.8519534982393</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="H33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="I33" t="n">
         <v>38.05817895130236</v>
@@ -29878,25 +29878,25 @@
         <v>34.84036637856727</v>
       </c>
       <c r="S33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="T33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="U33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="V33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="W33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="X33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Y33" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="C34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="D34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="E34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="F34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="G34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="H34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="I34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="J34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="K34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="L34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="M34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="N34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="O34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="P34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="R34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="S34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="T34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="U34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="V34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="W34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="X34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="C35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="D35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="E35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="F35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="G35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="H35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="I35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>5.99707799796758</v>
       </c>
       <c r="S35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="T35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="U35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="V35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="W35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="X35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="C36" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="D36" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="E36" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="F36" t="n">
-        <v>26.85195349823924</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="G36" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="H36" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="I36" t="n">
         <v>38.05817895130236</v>
@@ -30115,25 +30115,25 @@
         <v>34.84036637856727</v>
       </c>
       <c r="S36" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="T36" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="U36" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="V36" t="n">
-        <v>68.16614177738506</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>68.16614177738506</v>
+        <v>26.85195349823971</v>
       </c>
       <c r="X36" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>68.16614177738505</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="C37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="D37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="E37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="F37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="G37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="H37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="I37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="J37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="K37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="L37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="M37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="N37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="O37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="P37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="R37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="S37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="T37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="U37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="V37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="W37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="X37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="C38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="D38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="E38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="F38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="G38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="H38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="I38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>5.99707799796758</v>
       </c>
       <c r="S38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="T38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="U38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="V38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="W38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="X38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="D39" t="n">
-        <v>26.85195349823927</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="E39" t="n">
-        <v>68.16614177738506</v>
+        <v>26.85195349823982</v>
       </c>
       <c r="F39" t="n">
-        <v>68.16614177738506</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="H39" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="I39" t="n">
         <v>38.05817895130236</v>
@@ -30352,25 +30352,25 @@
         <v>34.84036637856727</v>
       </c>
       <c r="S39" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="T39" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="U39" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="V39" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="W39" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="X39" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Y39" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="C40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="D40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="E40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="F40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="G40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="H40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="I40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="J40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="K40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="L40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="M40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="N40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="O40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="P40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="R40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="S40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="T40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="U40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="V40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="W40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="X40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.16614177738506</v>
+        <v>68.16614177738505</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="C41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="D41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="E41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="F41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="G41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="H41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="I41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>5.99707799796758</v>
       </c>
       <c r="S41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="T41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="U41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="V41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="W41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="X41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="C42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="D42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="E42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="F42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="G42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="H42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="I42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="J42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="K42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="L42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="M42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="N42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="O42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="P42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="R42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="S42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="T42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="U42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="V42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="W42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="X42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="C43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="D43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="E43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="F43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="G43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="H43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="I43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="J43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="K43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="L43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="M43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="N43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="O43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="P43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="Q43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="R43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="S43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="T43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="U43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="V43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="W43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="X43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="C44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="D44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="E44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="F44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="G44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="H44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="I44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>5.99707799796758</v>
       </c>
       <c r="S44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="T44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="U44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="V44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="W44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="X44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="C45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="D45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="E45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="F45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="G45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="H45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="I45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="J45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="K45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="L45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="M45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="N45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="O45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="P45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="R45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="S45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="T45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="U45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="V45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="W45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="X45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="C46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="D46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="E46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="F46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="G46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="H46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="I46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="J46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="K46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="L46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="M46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="N46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="O46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="P46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="R46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="S46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="T46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="U46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="V46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="W46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="X46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.03170578353982</v>
+        <v>34.0317057835398</v>
       </c>
     </row>
   </sheetData>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.336532502595498</v>
+        <v>3.336532502595497</v>
       </c>
       <c r="H11" t="n">
         <v>34.17026349220615</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6316693063131</v>
+        <v>128.631669306313</v>
       </c>
       <c r="J11" t="n">
-        <v>283.1840254921649</v>
+        <v>283.1840254921648</v>
       </c>
       <c r="K11" t="n">
-        <v>424.4194463270324</v>
+        <v>424.4194463270323</v>
       </c>
       <c r="L11" t="n">
-        <v>526.5298529033395</v>
+        <v>526.5298529033394</v>
       </c>
       <c r="M11" t="n">
-        <v>585.8659127963722</v>
+        <v>585.8659127963721</v>
       </c>
       <c r="N11" t="n">
-        <v>595.3458357693717</v>
+        <v>595.3458357693715</v>
       </c>
       <c r="O11" t="n">
         <v>562.1681906966876</v>
       </c>
       <c r="P11" t="n">
-        <v>479.7975445388612</v>
+        <v>479.7975445388611</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.3079742896598</v>
+        <v>360.3079742896597</v>
       </c>
       <c r="R11" t="n">
         <v>209.5884598161646</v>
       </c>
       <c r="S11" t="n">
-        <v>76.03123440289498</v>
+        <v>76.03123440289497</v>
       </c>
       <c r="T11" t="n">
         <v>14.6056710301118</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.785202272497206</v>
+        <v>1.785202272497205</v>
       </c>
       <c r="H12" t="n">
         <v>17.24129563174933</v>
       </c>
       <c r="I12" t="n">
-        <v>61.46420104869766</v>
+        <v>61.46420104869765</v>
       </c>
       <c r="J12" t="n">
         <v>168.6624655783435</v>
       </c>
       <c r="K12" t="n">
-        <v>288.2710178356563</v>
+        <v>288.2710178356562</v>
       </c>
       <c r="L12" t="n">
-        <v>387.6159583332201</v>
+        <v>387.61595833322</v>
       </c>
       <c r="M12" t="n">
-        <v>452.3295407112437</v>
+        <v>452.3295407112436</v>
       </c>
       <c r="N12" t="n">
-        <v>464.301357705315</v>
+        <v>464.3013577053149</v>
       </c>
       <c r="O12" t="n">
         <v>424.7450336673505</v>
@@ -31867,10 +31867,10 @@
         <v>110.8391375853967</v>
       </c>
       <c r="S12" t="n">
-        <v>33.15934922818273</v>
+        <v>33.15934922818272</v>
       </c>
       <c r="T12" t="n">
-        <v>7.195617931688296</v>
+        <v>7.195617931688295</v>
       </c>
       <c r="U12" t="n">
         <v>0.1174475179274478</v>
@@ -31916,16 +31916,16 @@
         <v>13.3066112442652</v>
       </c>
       <c r="I13" t="n">
-        <v>45.00845602865979</v>
+        <v>45.00845602865978</v>
       </c>
       <c r="J13" t="n">
         <v>105.8134106816466</v>
       </c>
       <c r="K13" t="n">
-        <v>173.8839383453059</v>
+        <v>173.8839383453058</v>
       </c>
       <c r="L13" t="n">
-        <v>222.5115749373344</v>
+        <v>222.5115749373343</v>
       </c>
       <c r="M13" t="n">
         <v>234.6072573464874</v>
@@ -31949,7 +31949,7 @@
         <v>26.08259075179587</v>
       </c>
       <c r="T13" t="n">
-        <v>6.394792724749119</v>
+        <v>6.394792724749118</v>
       </c>
       <c r="U13" t="n">
         <v>0.08163565180530802</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.336532502595497</v>
+        <v>3.336532502595496</v>
       </c>
       <c r="H17" t="n">
-        <v>34.17026349220615</v>
+        <v>34.17026349220614</v>
       </c>
       <c r="I17" t="n">
         <v>128.631669306313</v>
@@ -32238,37 +32238,37 @@
         <v>283.1840254921648</v>
       </c>
       <c r="K17" t="n">
-        <v>424.4194463270323</v>
+        <v>424.4194463270322</v>
       </c>
       <c r="L17" t="n">
-        <v>526.5298529033394</v>
+        <v>526.5298529033392</v>
       </c>
       <c r="M17" t="n">
-        <v>585.8659127963721</v>
+        <v>585.8659127963718</v>
       </c>
       <c r="N17" t="n">
-        <v>595.3458357693715</v>
+        <v>595.3458357693714</v>
       </c>
       <c r="O17" t="n">
-        <v>562.1681906966876</v>
+        <v>562.1681906966874</v>
       </c>
       <c r="P17" t="n">
-        <v>479.7975445388611</v>
+        <v>479.797544538861</v>
       </c>
       <c r="Q17" t="n">
         <v>360.3079742896597</v>
       </c>
       <c r="R17" t="n">
-        <v>209.5884598161646</v>
+        <v>209.5884598161645</v>
       </c>
       <c r="S17" t="n">
-        <v>76.03123440289497</v>
+        <v>76.03123440289495</v>
       </c>
       <c r="T17" t="n">
-        <v>14.6056710301118</v>
+        <v>14.60567103011179</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2669226002076397</v>
+        <v>0.2669226002076396</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.785202272497205</v>
       </c>
       <c r="H18" t="n">
-        <v>17.24129563174933</v>
+        <v>17.24129563174932</v>
       </c>
       <c r="I18" t="n">
-        <v>61.46420104869765</v>
+        <v>61.46420104869764</v>
       </c>
       <c r="J18" t="n">
-        <v>168.6624655783435</v>
+        <v>168.6624655783434</v>
       </c>
       <c r="K18" t="n">
         <v>288.2710178356562</v>
       </c>
       <c r="L18" t="n">
-        <v>387.61595833322</v>
+        <v>387.6159583332199</v>
       </c>
       <c r="M18" t="n">
-        <v>452.3295407112436</v>
+        <v>452.3295407112435</v>
       </c>
       <c r="N18" t="n">
-        <v>464.3013577053149</v>
+        <v>464.3013577053147</v>
       </c>
       <c r="O18" t="n">
-        <v>424.7450336673505</v>
+        <v>424.7450336673504</v>
       </c>
       <c r="P18" t="n">
-        <v>340.8953357016813</v>
+        <v>340.8953357016812</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.8795041173626</v>
+        <v>227.8795041173625</v>
       </c>
       <c r="R18" t="n">
         <v>110.8391375853967</v>
       </c>
       <c r="S18" t="n">
-        <v>33.15934922818272</v>
+        <v>33.15934922818271</v>
       </c>
       <c r="T18" t="n">
-        <v>7.195617931688295</v>
+        <v>7.195617931688293</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1174475179274478</v>
+        <v>0.1174475179274477</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>13.3066112442652</v>
       </c>
       <c r="I19" t="n">
-        <v>45.00845602865978</v>
+        <v>45.00845602865977</v>
       </c>
       <c r="J19" t="n">
         <v>105.8134106816466</v>
@@ -32402,31 +32402,31 @@
         <v>222.5115749373343</v>
       </c>
       <c r="M19" t="n">
-        <v>234.6072573464874</v>
+        <v>234.6072573464873</v>
       </c>
       <c r="N19" t="n">
         <v>229.0288211397915</v>
       </c>
       <c r="O19" t="n">
-        <v>211.545185711488</v>
+        <v>211.5451857114879</v>
       </c>
       <c r="P19" t="n">
-        <v>181.0134519363027</v>
+        <v>181.0134519363026</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3243314631152</v>
       </c>
       <c r="R19" t="n">
-        <v>67.29498897150881</v>
+        <v>67.29498897150879</v>
       </c>
       <c r="S19" t="n">
-        <v>26.08259075179587</v>
+        <v>26.08259075179586</v>
       </c>
       <c r="T19" t="n">
-        <v>6.394792724749118</v>
+        <v>6.394792724749117</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08163565180530802</v>
+        <v>0.08163565180530799</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34152,7 +34152,7 @@
         <v>479.797544538861</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.3079742896599</v>
+        <v>360.3079742896597</v>
       </c>
       <c r="R41" t="n">
         <v>209.5884598161645</v>
@@ -34374,7 +34374,7 @@
         <v>424.4194463270322</v>
       </c>
       <c r="L44" t="n">
-        <v>526.5298529033392</v>
+        <v>526.52985290334</v>
       </c>
       <c r="M44" t="n">
         <v>585.8659127963718</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>102.1381209654786</v>
+        <v>102.1381209654785</v>
       </c>
       <c r="K11" t="n">
-        <v>204.3295952820519</v>
+        <v>204.3295952820518</v>
       </c>
       <c r="L11" t="n">
-        <v>290.7634379333522</v>
+        <v>290.7634379333521</v>
       </c>
       <c r="M11" t="n">
-        <v>355.5196795690995</v>
+        <v>355.5196795690994</v>
       </c>
       <c r="N11" t="n">
-        <v>365.9327721727807</v>
+        <v>365.9327721727806</v>
       </c>
       <c r="O11" t="n">
         <v>332.0699792750008</v>
@@ -35491,25 +35491,25 @@
         <v>41.82483891167678</v>
       </c>
       <c r="K12" t="n">
-        <v>150.4295788612973</v>
+        <v>150.4295788612972</v>
       </c>
       <c r="L12" t="n">
-        <v>249.0615785533459</v>
+        <v>249.0615785533458</v>
       </c>
       <c r="M12" t="n">
-        <v>310.1955067892254</v>
+        <v>310.1955067892253</v>
       </c>
       <c r="N12" t="n">
         <v>332.9596456219816</v>
       </c>
       <c r="O12" t="n">
-        <v>282.1487892229061</v>
+        <v>282.148789222906</v>
       </c>
       <c r="P12" t="n">
-        <v>206.9209282873511</v>
+        <v>206.920928287351</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.89773003134113</v>
+        <v>87.8977300313411</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.62037234235891</v>
+        <v>80.62037234235888</v>
       </c>
       <c r="K13" t="n">
         <v>219.780588296808</v>
       </c>
       <c r="L13" t="n">
-        <v>318.2677419750356</v>
+        <v>318.2677419750355</v>
       </c>
       <c r="M13" t="n">
-        <v>342.3572760857131</v>
+        <v>342.357276085713</v>
       </c>
       <c r="N13" t="n">
         <v>341.3271352964052</v>
@@ -35585,7 +35585,7 @@
         <v>304.2964554029127</v>
       </c>
       <c r="P13" t="n">
-        <v>246.4581529785813</v>
+        <v>246.4581529785812</v>
       </c>
       <c r="Q13" t="n">
         <v>107.3284299888059</v>
@@ -35886,25 +35886,25 @@
         <v>102.1381209654785</v>
       </c>
       <c r="K17" t="n">
-        <v>204.3295952820518</v>
+        <v>204.3295952820517</v>
       </c>
       <c r="L17" t="n">
-        <v>290.7634379333521</v>
+        <v>290.763437933352</v>
       </c>
       <c r="M17" t="n">
-        <v>355.5196795690994</v>
+        <v>355.5196795690991</v>
       </c>
       <c r="N17" t="n">
-        <v>365.9327721727806</v>
+        <v>365.9327721727805</v>
       </c>
       <c r="O17" t="n">
-        <v>332.0699792750008</v>
+        <v>332.0699792750006</v>
       </c>
       <c r="P17" t="n">
-        <v>248.5645487835916</v>
+        <v>248.5645487835915</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.0022844152103</v>
+        <v>138.0022844152102</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.82483891167678</v>
+        <v>41.82483891167672</v>
       </c>
       <c r="K18" t="n">
         <v>150.4295788612972</v>
       </c>
       <c r="L18" t="n">
-        <v>249.0615785533458</v>
+        <v>249.0615785533457</v>
       </c>
       <c r="M18" t="n">
-        <v>310.1955067892253</v>
+        <v>310.1955067892252</v>
       </c>
       <c r="N18" t="n">
-        <v>332.9596456219816</v>
+        <v>332.9596456219814</v>
       </c>
       <c r="O18" t="n">
-        <v>282.148789222906</v>
+        <v>282.1487892229059</v>
       </c>
       <c r="P18" t="n">
         <v>206.920928287351</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8977300313411</v>
+        <v>87.89773003134101</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>80.62037234235888</v>
+        <v>80.62037234235885</v>
       </c>
       <c r="K19" t="n">
         <v>219.780588296808</v>
       </c>
       <c r="L19" t="n">
-        <v>318.2677419750355</v>
+        <v>318.2677419750354</v>
       </c>
       <c r="M19" t="n">
         <v>342.357276085713</v>
       </c>
       <c r="N19" t="n">
-        <v>341.3271352964052</v>
+        <v>341.3271352964051</v>
       </c>
       <c r="O19" t="n">
         <v>304.2964554029127</v>
@@ -36287,7 +36287,7 @@
         <v>318.2677419750354</v>
       </c>
       <c r="M22" t="n">
-        <v>342.3572760857129</v>
+        <v>342.357276085713</v>
       </c>
       <c r="N22" t="n">
         <v>341.3271352964051</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.62037234235881</v>
+        <v>80.62037234235885</v>
       </c>
       <c r="K25" t="n">
         <v>219.780588296808</v>
@@ -36524,7 +36524,7 @@
         <v>318.2677419750354</v>
       </c>
       <c r="M25" t="n">
-        <v>342.357276085713</v>
+        <v>342.3572760857129</v>
       </c>
       <c r="N25" t="n">
         <v>341.3271352964051</v>
@@ -36597,7 +36597,7 @@
         <v>102.1381209654785</v>
       </c>
       <c r="K26" t="n">
-        <v>204.3295952820519</v>
+        <v>204.3295952820517</v>
       </c>
       <c r="L26" t="n">
         <v>290.763437933352</v>
@@ -36615,7 +36615,7 @@
         <v>248.5645487835915</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.0022844152102</v>
+        <v>138.0022844152109</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>75.95927490552197</v>
+        <v>132.4824449498796</v>
       </c>
       <c r="K27" t="n">
-        <v>285.9029243260996</v>
+        <v>184.5640148551424</v>
       </c>
       <c r="L27" t="n">
         <v>283.196014547191</v>
@@ -36688,16 +36688,16 @@
         <v>367.0940816158267</v>
       </c>
       <c r="O27" t="n">
-        <v>316.2832252167511</v>
+        <v>316.2832252167512</v>
       </c>
       <c r="P27" t="n">
-        <v>241.0553642811962</v>
+        <v>241.0553642811963</v>
       </c>
       <c r="Q27" t="n">
         <v>122.0321660251863</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>44.81573942659881</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>46.58866655881904</v>
+        <v>46.58866655881906</v>
       </c>
       <c r="K28" t="n">
         <v>185.7488825132682</v>
@@ -36761,7 +36761,7 @@
         <v>284.2360361914957</v>
       </c>
       <c r="M28" t="n">
-        <v>308.3255703021731</v>
+        <v>308.3255703021732</v>
       </c>
       <c r="N28" t="n">
         <v>307.2954295128653</v>
@@ -36773,7 +36773,7 @@
         <v>212.4264471950414</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.29672420526605</v>
+        <v>73.29672420526606</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>204.3295952820517</v>
       </c>
       <c r="L29" t="n">
-        <v>290.763437933352</v>
+        <v>290.7634379333527</v>
       </c>
       <c r="M29" t="n">
         <v>355.5196795690991</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>177.2981843764792</v>
+        <v>75.95927490552198</v>
       </c>
       <c r="K30" t="n">
         <v>184.5640148551424</v>
@@ -36925,13 +36925,13 @@
         <v>367.0940816158267</v>
       </c>
       <c r="O30" t="n">
-        <v>316.2832252167511</v>
+        <v>316.2832252167512</v>
       </c>
       <c r="P30" t="n">
-        <v>241.0553642811962</v>
+        <v>241.0553642811963</v>
       </c>
       <c r="Q30" t="n">
-        <v>122.0321660251863</v>
+        <v>223.3710754961427</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>46.58866655881904</v>
+        <v>46.58866655881906</v>
       </c>
       <c r="K31" t="n">
         <v>185.7488825132682</v>
@@ -36998,7 +36998,7 @@
         <v>284.2360361914957</v>
       </c>
       <c r="M31" t="n">
-        <v>308.3255703021731</v>
+        <v>308.3255703021732</v>
       </c>
       <c r="N31" t="n">
         <v>307.2954295128653</v>
@@ -37010,7 +37010,7 @@
         <v>212.4264471950414</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.29672420526605</v>
+        <v>73.29672420526606</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.62037234235886</v>
+        <v>80.62037234235885</v>
       </c>
       <c r="K34" t="n">
         <v>219.780588296808</v>
       </c>
       <c r="L34" t="n">
-        <v>318.2677419750355</v>
+        <v>318.2677419750354</v>
       </c>
       <c r="M34" t="n">
         <v>342.357276085713</v>
@@ -37247,7 +37247,7 @@
         <v>246.4581529785812</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3284299888051</v>
+        <v>107.3284299888059</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.62037234235886</v>
+        <v>80.62037234235885</v>
       </c>
       <c r="K37" t="n">
         <v>219.780588296808</v>
       </c>
       <c r="L37" t="n">
-        <v>318.2677419750355</v>
+        <v>318.2677419750354</v>
       </c>
       <c r="M37" t="n">
-        <v>342.357276085713</v>
+        <v>342.3572760857129</v>
       </c>
       <c r="N37" t="n">
         <v>341.3271352964051</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.62037234235886</v>
+        <v>80.62037234235885</v>
       </c>
       <c r="K40" t="n">
         <v>219.780588296808</v>
       </c>
       <c r="L40" t="n">
-        <v>318.2677419750355</v>
+        <v>318.2677419750354</v>
       </c>
       <c r="M40" t="n">
-        <v>342.3572760857123</v>
+        <v>342.3572760857129</v>
       </c>
       <c r="N40" t="n">
         <v>341.3271352964051</v>
@@ -37800,7 +37800,7 @@
         <v>248.5645487835915</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.0022844152104</v>
+        <v>138.0022844152102</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.09927398082236</v>
       </c>
       <c r="J42" t="n">
-        <v>179.4847205443375</v>
+        <v>75.85654469521651</v>
       </c>
       <c r="K42" t="n">
         <v>184.461284644837</v>
@@ -37873,10 +37873,10 @@
         <v>366.9913514055212</v>
       </c>
       <c r="O42" t="n">
-        <v>316.1804950064458</v>
+        <v>316.1804950064457</v>
       </c>
       <c r="P42" t="n">
-        <v>240.9526340708908</v>
+        <v>338.4815359391902</v>
       </c>
       <c r="Q42" t="n">
         <v>121.9294358148808</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>46.48593634851362</v>
+        <v>46.4859363485136</v>
       </c>
       <c r="K43" t="n">
         <v>185.6461523029627</v>
@@ -37958,7 +37958,7 @@
         <v>212.3237169847359</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.19399399496062</v>
+        <v>73.19399399496061</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>204.3295952820517</v>
       </c>
       <c r="L44" t="n">
-        <v>290.763437933352</v>
+        <v>290.7634379333527</v>
       </c>
       <c r="M44" t="n">
         <v>355.5196795690991</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.099273980822382</v>
+        <v>6.09927398082236</v>
       </c>
       <c r="J45" t="n">
-        <v>75.85654469521654</v>
+        <v>75.85654469521651</v>
       </c>
       <c r="K45" t="n">
         <v>184.461284644837</v>
@@ -38110,16 +38110,16 @@
         <v>366.9913514055212</v>
       </c>
       <c r="O45" t="n">
-        <v>316.1804950064458</v>
+        <v>316.1804950064457</v>
       </c>
       <c r="P45" t="n">
-        <v>293.7685267228965</v>
+        <v>240.9526340708908</v>
       </c>
       <c r="Q45" t="n">
-        <v>121.9294358148808</v>
+        <v>219.4583376831806</v>
       </c>
       <c r="R45" t="n">
-        <v>44.71300921629337</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>46.48593634851362</v>
+        <v>46.4859363485136</v>
       </c>
       <c r="K46" t="n">
         <v>185.6461523029627</v>
@@ -38195,7 +38195,7 @@
         <v>212.3237169847359</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.19399399496062</v>
+        <v>73.19399399496061</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
